--- a/2018.xlsx
+++ b/2018.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ryan\Documents\GitHub\Clemson_Football_Analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E60F1CF-B6DE-4481-B224-E86927E998FA}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{793DF860-5370-4C25-9AC1-0F1EE5407F34}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1695" yWindow="270" windowWidth="21450" windowHeight="14385" xr2:uid="{CC753E6D-A7ED-C14A-9FDA-6FF942EF45A5}"/>
+    <workbookView xWindow="6240" yWindow="945" windowWidth="21450" windowHeight="14385" activeTab="1" xr2:uid="{CC753E6D-A7ED-C14A-9FDA-6FF942EF45A5}"/>
   </bookViews>
   <sheets>
     <sheet name="Blank Depth" sheetId="2" r:id="rId1"/>
@@ -3657,7 +3657,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63C53284-FF89-E74F-A4E7-AC50B8F7C354}">
   <dimension ref="A1:T139"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A113" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B140" sqref="B140"/>
     </sheetView>
   </sheetViews>
@@ -10815,8 +10815,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C3DE190-3B33-E643-BE26-E876BF115F0E}">
   <dimension ref="A1:BR132"/>
   <sheetViews>
-    <sheetView topLeftCell="A103" workbookViewId="0">
-      <selection activeCell="A50" sqref="A50:XFD50"/>
+    <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
+      <selection activeCell="I105" sqref="I105"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -10975,15 +10975,15 @@
         <v>#N/A</v>
       </c>
       <c r="K3" s="1" t="e">
-        <f>VLOOKUP(B3,$O$13:$X$36,3,FALSE)</f>
+        <f>VLOOKUP(B3,$AA$4:$AN$36,3,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="L3" s="1" t="e">
-        <f>VLOOKUP(B3,$O$13:$X$36,4,FALSE)</f>
+        <f>VLOOKUP(B3,$AA$4:$AN$36,4,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="M3" s="1" t="e">
-        <f>VLOOKUP(B3,$O$13:$X$36,6,FALSE)</f>
+        <f>VLOOKUP(B3,$AA$4:$AN$36,6,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="O3" s="15"/>
@@ -11080,15 +11080,15 @@
         <v>#N/A</v>
       </c>
       <c r="K4" s="1" t="e">
-        <f>VLOOKUP(B4,$O$13:$X$36,3,FALSE)</f>
+        <f t="shared" ref="K4:K7" si="0">VLOOKUP(B4,$AA$4:$AN$36,3,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="L4" s="1" t="e">
-        <f>VLOOKUP(B4,$O$13:$X$36,4,FALSE)</f>
+        <f t="shared" ref="L4:L7" si="1">VLOOKUP(B4,$AA$4:$AN$36,4,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="M4" s="1" t="e">
-        <f>VLOOKUP(B4,$O$13:$X$36,6,FALSE)</f>
+        <f t="shared" ref="M4:M7" si="2">VLOOKUP(B4,$AA$4:$AN$36,6,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="O4" s="15"/>
@@ -11185,15 +11185,15 @@
         <v>#N/A</v>
       </c>
       <c r="K5" s="1" t="e">
-        <f>VLOOKUP(B5,$O$13:$X$36,3,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
       <c r="L5" s="1" t="e">
-        <f>VLOOKUP(B5,$O$13:$X$36,4,FALSE)</f>
+        <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
       <c r="M5" s="1" t="e">
-        <f>VLOOKUP(B5,$O$13:$X$36,6,FALSE)</f>
+        <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="O5" s="15"/>
@@ -11290,15 +11290,15 @@
         <v>#N/A</v>
       </c>
       <c r="K6" s="1" t="e">
-        <f>VLOOKUP(B6,$O$13:$X$36,3,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
       <c r="L6" s="1" t="e">
-        <f>VLOOKUP(B6,$O$13:$X$36,4,FALSE)</f>
+        <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
       <c r="M6" s="1" t="e">
-        <f>VLOOKUP(B6,$O$13:$X$36,6,FALSE)</f>
+        <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="O6" s="15"/>
@@ -11395,15 +11395,15 @@
         <v>#N/A</v>
       </c>
       <c r="K7" s="1" t="e">
-        <f>VLOOKUP(B7,$O$13:$X$36,3,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
       <c r="L7" s="1" t="e">
-        <f>VLOOKUP(B7,$O$13:$X$36,4,FALSE)</f>
+        <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
       <c r="M7" s="1" t="e">
-        <f>VLOOKUP(B7,$O$13:$X$36,6,FALSE)</f>
+        <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="AA7" s="15"/>
@@ -11638,31 +11638,31 @@
         <v>306</v>
       </c>
       <c r="C12" t="e">
-        <f t="shared" ref="C12:C20" si="0">VLOOKUP(B12,$AA$4:$AN$36,3,FALSE)</f>
+        <f t="shared" ref="C12:C20" si="3">VLOOKUP(B12,$AA$4:$AN$36,3,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="D12" t="e">
-        <f t="shared" ref="D12:D20" si="1">VLOOKUP(B12,$AA$4:$AN$36,4,FALSE)</f>
+        <f t="shared" ref="D12:D20" si="4">VLOOKUP(B12,$AA$4:$AN$36,4,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="E12" t="e">
-        <f t="shared" ref="E12:E20" si="2">VLOOKUP(B12,$AA$4:$AN$36,5,FALSE)</f>
+        <f t="shared" ref="E12:E20" si="5">VLOOKUP(B12,$AA$4:$AN$36,5,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="F12" t="e">
-        <f t="shared" ref="F12:F20" si="3">VLOOKUP(B12,$AA$4:$AN$36,6,FALSE)</f>
+        <f t="shared" ref="F12:F20" si="6">VLOOKUP(B12,$AA$4:$AN$36,6,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="G12" t="e">
-        <f t="shared" ref="G12:G20" si="4">VLOOKUP(B12,$AA$4:$AN$36,7,FALSE)</f>
+        <f t="shared" ref="G12:G20" si="7">VLOOKUP(B12,$AA$4:$AN$36,7,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="H12" t="e">
-        <f t="shared" ref="H12:H20" si="5">VLOOKUP(B12,$AA$4:$AN$36,8,FALSE)</f>
+        <f t="shared" ref="H12:H20" si="8">VLOOKUP(B12,$AA$4:$AN$36,8,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="I12" t="e">
-        <f t="shared" ref="I12:I20" si="6">VLOOKUP(B12,$AA$4:$AN$36,10,FALSE)</f>
+        <f t="shared" ref="I12:I20" si="9">VLOOKUP(B12,$AA$4:$AN$36,10,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="O12" s="15"/>
@@ -11704,31 +11704,31 @@
         <v>307</v>
       </c>
       <c r="C13" t="e">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
       <c r="D13" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="E13" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
       <c r="F13" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="G13" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="H13" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
       <c r="I13" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
       <c r="O13" s="15"/>
@@ -11770,31 +11770,31 @@
         <v>308</v>
       </c>
       <c r="C14" t="e">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
       <c r="D14" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="E14" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
       <c r="F14" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="G14" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="H14" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
       <c r="I14" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
       <c r="O14" s="15"/>
@@ -11836,31 +11836,31 @@
         <v>309</v>
       </c>
       <c r="C15" t="e">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
       <c r="D15" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="E15" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
       <c r="F15" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="G15" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="H15" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
       <c r="I15" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
       <c r="O15" s="15"/>
@@ -11902,31 +11902,31 @@
         <v>310</v>
       </c>
       <c r="C16" t="e">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
       <c r="D16" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="E16" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
       <c r="F16" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="G16" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="H16" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
       <c r="I16" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
       <c r="O16" s="15"/>
@@ -11968,31 +11968,31 @@
         <v>311</v>
       </c>
       <c r="C17" t="e">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
       <c r="D17" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="E17" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
       <c r="F17" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="G17" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="H17" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
       <c r="I17" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
       <c r="O17" s="15"/>
@@ -12034,31 +12034,31 @@
         <v>312</v>
       </c>
       <c r="C18" t="e">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
       <c r="D18" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="E18" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
       <c r="F18" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="G18" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="H18" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
       <c r="I18" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
       <c r="O18" s="15"/>
@@ -12100,31 +12100,31 @@
         <v>313</v>
       </c>
       <c r="C19" t="e">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
       <c r="D19" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="E19" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
       <c r="F19" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="G19" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="H19" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
       <c r="I19" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
       <c r="O19" s="15"/>
@@ -12166,31 +12166,31 @@
         <v>314</v>
       </c>
       <c r="C20" t="e">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
       <c r="D20" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="E20" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
       <c r="F20" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="G20" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
       <c r="H20" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
       <c r="I20" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
       <c r="O20" s="15"/>
@@ -12324,19 +12324,19 @@
         <v>315</v>
       </c>
       <c r="C24" t="e">
-        <f t="shared" ref="C24:C46" si="7">VLOOKUP(B24,$AA$4:$AN$36,7,FALSE)</f>
+        <f t="shared" ref="C24:C46" si="10">VLOOKUP(B24,$AA$4:$AN$36,7,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="D24" t="e">
-        <f t="shared" ref="D24:D46" si="8">VLOOKUP(B24,$AA$4:$AN$36,8,FALSE)</f>
+        <f t="shared" ref="D24:D46" si="11">VLOOKUP(B24,$AA$4:$AN$36,8,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="E24" t="e">
-        <f t="shared" ref="E24:E46" si="9">VLOOKUP(B24,$AA$4:$AN$36,9,FALSE)</f>
+        <f t="shared" ref="E24:E46" si="12">VLOOKUP(B24,$AA$4:$AN$36,9,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="F24" t="e">
-        <f t="shared" ref="F24:F46" si="10">VLOOKUP(B24,$AA$4:$AN$36,10,FALSE)</f>
+        <f t="shared" ref="F24:F46" si="13">VLOOKUP(B24,$AA$4:$AN$36,10,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="AP24" s="15"/>
@@ -12364,19 +12364,19 @@
         <v>316</v>
       </c>
       <c r="C25" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
       <c r="D25" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>#N/A</v>
       </c>
       <c r="E25" t="e">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>#N/A</v>
       </c>
       <c r="F25" t="e">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>#N/A</v>
       </c>
       <c r="AP25" s="15"/>
@@ -12404,19 +12404,19 @@
         <v>317</v>
       </c>
       <c r="C26" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
       <c r="D26" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>#N/A</v>
       </c>
       <c r="E26" t="e">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>#N/A</v>
       </c>
       <c r="F26" t="e">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>#N/A</v>
       </c>
       <c r="AP26" s="15"/>
@@ -12444,19 +12444,19 @@
         <v>318</v>
       </c>
       <c r="C27" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
       <c r="D27" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>#N/A</v>
       </c>
       <c r="E27" t="e">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>#N/A</v>
       </c>
       <c r="F27" t="e">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>#N/A</v>
       </c>
     </row>
@@ -12468,19 +12468,19 @@
         <v>319</v>
       </c>
       <c r="C28" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
       <c r="D28" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>#N/A</v>
       </c>
       <c r="E28" t="e">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>#N/A</v>
       </c>
       <c r="F28" t="e">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>#N/A</v>
       </c>
     </row>
@@ -12492,19 +12492,19 @@
         <v>320</v>
       </c>
       <c r="C29" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
       <c r="D29" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>#N/A</v>
       </c>
       <c r="E29" t="e">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>#N/A</v>
       </c>
       <c r="F29" t="e">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>#N/A</v>
       </c>
     </row>
@@ -12516,19 +12516,19 @@
         <v>321</v>
       </c>
       <c r="C30" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
       <c r="D30" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>#N/A</v>
       </c>
       <c r="E30" t="e">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>#N/A</v>
       </c>
       <c r="F30" t="e">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>#N/A</v>
       </c>
     </row>
@@ -12540,19 +12540,19 @@
         <v>322</v>
       </c>
       <c r="C31" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
       <c r="D31" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>#N/A</v>
       </c>
       <c r="E31" t="e">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>#N/A</v>
       </c>
       <c r="F31" t="e">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>#N/A</v>
       </c>
     </row>
@@ -12564,19 +12564,19 @@
         <v>323</v>
       </c>
       <c r="C32" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
       <c r="D32" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>#N/A</v>
       </c>
       <c r="E32" t="e">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>#N/A</v>
       </c>
       <c r="F32" t="e">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>#N/A</v>
       </c>
     </row>
@@ -12588,19 +12588,19 @@
         <v>324</v>
       </c>
       <c r="C33" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
       <c r="D33" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>#N/A</v>
       </c>
       <c r="E33" t="e">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>#N/A</v>
       </c>
       <c r="F33" t="e">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>#N/A</v>
       </c>
     </row>
@@ -12612,19 +12612,19 @@
         <v>325</v>
       </c>
       <c r="C34" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
       <c r="D34" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>#N/A</v>
       </c>
       <c r="E34" t="e">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>#N/A</v>
       </c>
       <c r="F34" t="e">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>#N/A</v>
       </c>
     </row>
@@ -12636,19 +12636,19 @@
         <v>326</v>
       </c>
       <c r="C35" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
       <c r="D35" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>#N/A</v>
       </c>
       <c r="E35" t="e">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>#N/A</v>
       </c>
       <c r="F35" t="e">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>#N/A</v>
       </c>
     </row>
@@ -12660,19 +12660,19 @@
         <v>327</v>
       </c>
       <c r="C36" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
       <c r="D36" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>#N/A</v>
       </c>
       <c r="E36" t="e">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>#N/A</v>
       </c>
       <c r="F36" t="e">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>#N/A</v>
       </c>
     </row>
@@ -12684,19 +12684,19 @@
         <v>328</v>
       </c>
       <c r="C37" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
       <c r="D37" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>#N/A</v>
       </c>
       <c r="E37" t="e">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>#N/A</v>
       </c>
       <c r="F37" t="e">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>#N/A</v>
       </c>
     </row>
@@ -12708,19 +12708,19 @@
         <v>329</v>
       </c>
       <c r="C38" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
       <c r="D38" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>#N/A</v>
       </c>
       <c r="E38" t="e">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>#N/A</v>
       </c>
       <c r="F38" t="e">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>#N/A</v>
       </c>
     </row>
@@ -12732,19 +12732,19 @@
         <v>330</v>
       </c>
       <c r="C39" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
       <c r="D39" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>#N/A</v>
       </c>
       <c r="E39" t="e">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>#N/A</v>
       </c>
       <c r="F39" t="e">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>#N/A</v>
       </c>
     </row>
@@ -12756,19 +12756,19 @@
         <v>331</v>
       </c>
       <c r="C40" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
       <c r="D40" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>#N/A</v>
       </c>
       <c r="E40" t="e">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>#N/A</v>
       </c>
       <c r="F40" t="e">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>#N/A</v>
       </c>
     </row>
@@ -12780,19 +12780,19 @@
         <v>332</v>
       </c>
       <c r="C41" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
       <c r="D41" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>#N/A</v>
       </c>
       <c r="E41" t="e">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>#N/A</v>
       </c>
       <c r="F41" t="e">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>#N/A</v>
       </c>
     </row>
@@ -12804,19 +12804,19 @@
         <v>333</v>
       </c>
       <c r="C42" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
       <c r="D42" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>#N/A</v>
       </c>
       <c r="E42" t="e">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>#N/A</v>
       </c>
       <c r="F42" t="e">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>#N/A</v>
       </c>
     </row>
@@ -12828,19 +12828,19 @@
         <v>334</v>
       </c>
       <c r="C43" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
       <c r="D43" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>#N/A</v>
       </c>
       <c r="E43" t="e">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>#N/A</v>
       </c>
       <c r="F43" t="e">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>#N/A</v>
       </c>
     </row>
@@ -12852,19 +12852,19 @@
         <v>335</v>
       </c>
       <c r="C44" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
       <c r="D44" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>#N/A</v>
       </c>
       <c r="E44" t="e">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>#N/A</v>
       </c>
       <c r="F44" t="e">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>#N/A</v>
       </c>
     </row>
@@ -12876,19 +12876,19 @@
         <v>336</v>
       </c>
       <c r="C45" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
       <c r="D45" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>#N/A</v>
       </c>
       <c r="E45" t="e">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>#N/A</v>
       </c>
       <c r="F45" t="e">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>#N/A</v>
       </c>
     </row>
@@ -12900,19 +12900,19 @@
         <v>337</v>
       </c>
       <c r="C46" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
       <c r="D46" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>#N/A</v>
       </c>
       <c r="E46" t="e">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>#N/A</v>
       </c>
       <c r="F46" t="e">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>#N/A</v>
       </c>
     </row>
@@ -12987,47 +12987,47 @@
         <v>338</v>
       </c>
       <c r="C53" t="e">
-        <f t="shared" ref="C53:C84" si="11">VLOOKUP(B53,$AP$4:$BE$26,3,FALSE)</f>
+        <f>VLOOKUP(B53,$AP$4:$BE$256,3,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="D53" t="e">
-        <f t="shared" ref="D53:D84" si="12">VLOOKUP(B53,$AP$4:$BE$26,4,FALSE)</f>
+        <f>VLOOKUP(B53,$AP$4:$BE$256,4,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="E53" t="e">
-        <f t="shared" ref="E53:E84" si="13">VLOOKUP(B53,$AP$4:$BE$26,5,FALSE)</f>
+        <f>VLOOKUP(B53,$AP$4:$BE$256,5,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="F53" t="e">
-        <f t="shared" ref="F53:F84" si="14">VLOOKUP(B53,$AP$4:$BE$26,6,FALSE)</f>
+        <f>VLOOKUP(B53,$AP$4:$BE$256,6,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="G53" t="e">
-        <f t="shared" ref="G53:G84" si="15">VLOOKUP(B53,$AP$4:$BE$26,7,FALSE)</f>
+        <f>VLOOKUP(B53,$AP$4:$BE$256,7,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="H53" t="e">
-        <f t="shared" ref="H53:H84" si="16">VLOOKUP(B53,$AP$4:$BE$26,8,FALSE)</f>
+        <f>VLOOKUP(B53,$AP$4:$BE$256,8,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="I53" t="e">
-        <f t="shared" ref="I53:I84" si="17">VLOOKUP(B53,$AP$4:$BE$26,12,FALSE)</f>
+        <f>VLOOKUP(B53,$AP$4:$BE$256,12,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="J53" t="e">
-        <f t="shared" ref="J53:J84" si="18">VLOOKUP(B53,$AP$4:$BE$26,11,FALSE)</f>
+        <f>VLOOKUP(B53,$AP$4:$BE$256,11,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="K53" t="e">
-        <f t="shared" ref="K53:K84" si="19">VLOOKUP(B53,$AP$4:$BE$26,13,FALSE)</f>
+        <f>VLOOKUP(B53,$AP$4:$BE$256,13,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="L53" t="e">
-        <f t="shared" ref="L53:L84" si="20">VLOOKUP(B53,$AP$4:$BE$26,16,FALSE)</f>
+        <f>VLOOKUP(B53,$AP$4:$BE$256,16,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="M53" t="e">
-        <f t="shared" ref="M53:M84" si="21">VLOOKUP(B53,$AP$4:$BE$26,15,FALSE)</f>
+        <f>VLOOKUP(B53,$AP$4:$BE$256,15,FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -13039,47 +13039,47 @@
         <v>339</v>
       </c>
       <c r="C54" t="e">
-        <f t="shared" si="11"/>
+        <f t="shared" ref="C54:C109" si="14">VLOOKUP(B54,$AP$4:$BE$256,3,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="D54" t="e">
-        <f t="shared" si="12"/>
+        <f t="shared" ref="D54:D109" si="15">VLOOKUP(B54,$AP$4:$BE$256,4,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="E54" t="e">
-        <f t="shared" si="13"/>
+        <f t="shared" ref="E54:E109" si="16">VLOOKUP(B54,$AP$4:$BE$256,5,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="F54" t="e">
-        <f t="shared" si="14"/>
+        <f t="shared" ref="F54:F109" si="17">VLOOKUP(B54,$AP$4:$BE$256,6,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="G54" t="e">
-        <f t="shared" si="15"/>
+        <f t="shared" ref="G54:G109" si="18">VLOOKUP(B54,$AP$4:$BE$256,7,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="H54" t="e">
-        <f t="shared" si="16"/>
+        <f t="shared" ref="H54:H109" si="19">VLOOKUP(B54,$AP$4:$BE$256,8,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="I54" t="e">
-        <f t="shared" si="17"/>
+        <f t="shared" ref="I54:I109" si="20">VLOOKUP(B54,$AP$4:$BE$256,12,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="J54" t="e">
-        <f t="shared" si="18"/>
+        <f t="shared" ref="J54:J109" si="21">VLOOKUP(B54,$AP$4:$BE$256,11,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="K54" t="e">
-        <f t="shared" si="19"/>
+        <f t="shared" ref="K54:K109" si="22">VLOOKUP(B54,$AP$4:$BE$256,13,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="L54" t="e">
-        <f t="shared" si="20"/>
+        <f t="shared" ref="L54:L109" si="23">VLOOKUP(B54,$AP$4:$BE$256,16,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="M54" t="e">
-        <f t="shared" si="21"/>
+        <f t="shared" ref="M54:M109" si="24">VLOOKUP(B54,$AP$4:$BE$256,15,FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -13091,47 +13091,47 @@
         <v>340</v>
       </c>
       <c r="C55" t="e">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>#N/A</v>
       </c>
       <c r="D55" t="e">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>#N/A</v>
       </c>
       <c r="E55" t="e">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>#N/A</v>
       </c>
       <c r="F55" t="e">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>#N/A</v>
       </c>
       <c r="G55" t="e">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>#N/A</v>
       </c>
       <c r="H55" t="e">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>#N/A</v>
       </c>
       <c r="I55" t="e">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>#N/A</v>
       </c>
       <c r="J55" t="e">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>#N/A</v>
       </c>
       <c r="K55" t="e">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>#N/A</v>
       </c>
       <c r="L55" t="e">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>#N/A</v>
       </c>
       <c r="M55" t="e">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>#N/A</v>
       </c>
     </row>
@@ -13143,47 +13143,47 @@
         <v>341</v>
       </c>
       <c r="C56" t="e">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>#N/A</v>
       </c>
       <c r="D56" t="e">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>#N/A</v>
       </c>
       <c r="E56" t="e">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>#N/A</v>
       </c>
       <c r="F56" t="e">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>#N/A</v>
       </c>
       <c r="G56" t="e">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>#N/A</v>
       </c>
       <c r="H56" t="e">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>#N/A</v>
       </c>
       <c r="I56" t="e">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>#N/A</v>
       </c>
       <c r="J56" t="e">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>#N/A</v>
       </c>
       <c r="K56" t="e">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>#N/A</v>
       </c>
       <c r="L56" t="e">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>#N/A</v>
       </c>
       <c r="M56" t="e">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>#N/A</v>
       </c>
     </row>
@@ -13195,47 +13195,47 @@
         <v>342</v>
       </c>
       <c r="C57" t="e">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>#N/A</v>
       </c>
       <c r="D57" t="e">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>#N/A</v>
       </c>
       <c r="E57" t="e">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>#N/A</v>
       </c>
       <c r="F57" t="e">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>#N/A</v>
       </c>
       <c r="G57" t="e">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>#N/A</v>
       </c>
       <c r="H57" t="e">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>#N/A</v>
       </c>
       <c r="I57" t="e">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>#N/A</v>
       </c>
       <c r="J57" t="e">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>#N/A</v>
       </c>
       <c r="K57" t="e">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>#N/A</v>
       </c>
       <c r="L57" t="e">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>#N/A</v>
       </c>
       <c r="M57" t="e">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>#N/A</v>
       </c>
     </row>
@@ -13247,47 +13247,47 @@
         <v>343</v>
       </c>
       <c r="C58" t="e">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>#N/A</v>
       </c>
       <c r="D58" t="e">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>#N/A</v>
       </c>
       <c r="E58" t="e">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>#N/A</v>
       </c>
       <c r="F58" t="e">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>#N/A</v>
       </c>
       <c r="G58" t="e">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>#N/A</v>
       </c>
       <c r="H58" t="e">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>#N/A</v>
       </c>
       <c r="I58" t="e">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>#N/A</v>
       </c>
       <c r="J58" t="e">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>#N/A</v>
       </c>
       <c r="K58" t="e">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>#N/A</v>
       </c>
       <c r="L58" t="e">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>#N/A</v>
       </c>
       <c r="M58" t="e">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>#N/A</v>
       </c>
     </row>
@@ -13299,47 +13299,47 @@
         <v>344</v>
       </c>
       <c r="C59" t="e">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>#N/A</v>
       </c>
       <c r="D59" t="e">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>#N/A</v>
       </c>
       <c r="E59" t="e">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>#N/A</v>
       </c>
       <c r="F59" t="e">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>#N/A</v>
       </c>
       <c r="G59" t="e">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>#N/A</v>
       </c>
       <c r="H59" t="e">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>#N/A</v>
       </c>
       <c r="I59" t="e">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>#N/A</v>
       </c>
       <c r="J59" t="e">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>#N/A</v>
       </c>
       <c r="K59" t="e">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>#N/A</v>
       </c>
       <c r="L59" t="e">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>#N/A</v>
       </c>
       <c r="M59" t="e">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>#N/A</v>
       </c>
     </row>
@@ -13351,47 +13351,47 @@
         <v>345</v>
       </c>
       <c r="C60" t="e">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>#N/A</v>
       </c>
       <c r="D60" t="e">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>#N/A</v>
       </c>
       <c r="E60" t="e">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>#N/A</v>
       </c>
       <c r="F60" t="e">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>#N/A</v>
       </c>
       <c r="G60" t="e">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>#N/A</v>
       </c>
       <c r="H60" t="e">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>#N/A</v>
       </c>
       <c r="I60" t="e">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>#N/A</v>
       </c>
       <c r="J60" t="e">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>#N/A</v>
       </c>
       <c r="K60" t="e">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>#N/A</v>
       </c>
       <c r="L60" t="e">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>#N/A</v>
       </c>
       <c r="M60" t="e">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>#N/A</v>
       </c>
     </row>
@@ -13403,47 +13403,47 @@
         <v>346</v>
       </c>
       <c r="C61" t="e">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>#N/A</v>
       </c>
       <c r="D61" t="e">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>#N/A</v>
       </c>
       <c r="E61" t="e">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>#N/A</v>
       </c>
       <c r="F61" t="e">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>#N/A</v>
       </c>
       <c r="G61" t="e">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>#N/A</v>
       </c>
       <c r="H61" t="e">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>#N/A</v>
       </c>
       <c r="I61" t="e">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>#N/A</v>
       </c>
       <c r="J61" t="e">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>#N/A</v>
       </c>
       <c r="K61" t="e">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>#N/A</v>
       </c>
       <c r="L61" t="e">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>#N/A</v>
       </c>
       <c r="M61" t="e">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>#N/A</v>
       </c>
     </row>
@@ -13455,47 +13455,47 @@
         <v>347</v>
       </c>
       <c r="C62" t="e">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>#N/A</v>
       </c>
       <c r="D62" t="e">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>#N/A</v>
       </c>
       <c r="E62" t="e">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>#N/A</v>
       </c>
       <c r="F62" t="e">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>#N/A</v>
       </c>
       <c r="G62" t="e">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>#N/A</v>
       </c>
       <c r="H62" t="e">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>#N/A</v>
       </c>
       <c r="I62" t="e">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>#N/A</v>
       </c>
       <c r="J62" t="e">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>#N/A</v>
       </c>
       <c r="K62" t="e">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>#N/A</v>
       </c>
       <c r="L62" t="e">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>#N/A</v>
       </c>
       <c r="M62" t="e">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>#N/A</v>
       </c>
     </row>
@@ -13507,47 +13507,47 @@
         <v>348</v>
       </c>
       <c r="C63" t="e">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>#N/A</v>
       </c>
       <c r="D63" t="e">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>#N/A</v>
       </c>
       <c r="E63" t="e">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>#N/A</v>
       </c>
       <c r="F63" t="e">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>#N/A</v>
       </c>
       <c r="G63" t="e">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>#N/A</v>
       </c>
       <c r="H63" t="e">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>#N/A</v>
       </c>
       <c r="I63" t="e">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>#N/A</v>
       </c>
       <c r="J63" t="e">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>#N/A</v>
       </c>
       <c r="K63" t="e">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>#N/A</v>
       </c>
       <c r="L63" t="e">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>#N/A</v>
       </c>
       <c r="M63" t="e">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>#N/A</v>
       </c>
     </row>
@@ -13559,47 +13559,47 @@
         <v>349</v>
       </c>
       <c r="C64" t="e">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>#N/A</v>
       </c>
       <c r="D64" t="e">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>#N/A</v>
       </c>
       <c r="E64" t="e">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>#N/A</v>
       </c>
       <c r="F64" t="e">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>#N/A</v>
       </c>
       <c r="G64" t="e">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>#N/A</v>
       </c>
       <c r="H64" t="e">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>#N/A</v>
       </c>
       <c r="I64" t="e">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>#N/A</v>
       </c>
       <c r="J64" t="e">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>#N/A</v>
       </c>
       <c r="K64" t="e">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>#N/A</v>
       </c>
       <c r="L64" t="e">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>#N/A</v>
       </c>
       <c r="M64" t="e">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>#N/A</v>
       </c>
     </row>
@@ -13611,47 +13611,47 @@
         <v>350</v>
       </c>
       <c r="C65" t="e">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>#N/A</v>
       </c>
       <c r="D65" t="e">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>#N/A</v>
       </c>
       <c r="E65" t="e">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>#N/A</v>
       </c>
       <c r="F65" t="e">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>#N/A</v>
       </c>
       <c r="G65" t="e">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>#N/A</v>
       </c>
       <c r="H65" t="e">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>#N/A</v>
       </c>
       <c r="I65" t="e">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>#N/A</v>
       </c>
       <c r="J65" t="e">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>#N/A</v>
       </c>
       <c r="K65" t="e">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>#N/A</v>
       </c>
       <c r="L65" t="e">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>#N/A</v>
       </c>
       <c r="M65" t="e">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>#N/A</v>
       </c>
     </row>
@@ -13663,47 +13663,47 @@
         <v>351</v>
       </c>
       <c r="C66" t="e">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>#N/A</v>
       </c>
       <c r="D66" t="e">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>#N/A</v>
       </c>
       <c r="E66" t="e">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>#N/A</v>
       </c>
       <c r="F66" t="e">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>#N/A</v>
       </c>
       <c r="G66" t="e">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>#N/A</v>
       </c>
       <c r="H66" t="e">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>#N/A</v>
       </c>
       <c r="I66" t="e">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>#N/A</v>
       </c>
       <c r="J66" t="e">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>#N/A</v>
       </c>
       <c r="K66" t="e">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>#N/A</v>
       </c>
       <c r="L66" t="e">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>#N/A</v>
       </c>
       <c r="M66" t="e">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>#N/A</v>
       </c>
     </row>
@@ -13715,47 +13715,47 @@
         <v>352</v>
       </c>
       <c r="C67" t="e">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>#N/A</v>
       </c>
       <c r="D67" t="e">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>#N/A</v>
       </c>
       <c r="E67" t="e">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>#N/A</v>
       </c>
       <c r="F67" t="e">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>#N/A</v>
       </c>
       <c r="G67" t="e">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>#N/A</v>
       </c>
       <c r="H67" t="e">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>#N/A</v>
       </c>
       <c r="I67" t="e">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>#N/A</v>
       </c>
       <c r="J67" t="e">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>#N/A</v>
       </c>
       <c r="K67" t="e">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>#N/A</v>
       </c>
       <c r="L67" t="e">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>#N/A</v>
       </c>
       <c r="M67" t="e">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>#N/A</v>
       </c>
     </row>
@@ -13767,47 +13767,47 @@
         <v>353</v>
       </c>
       <c r="C68" t="e">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>#N/A</v>
       </c>
       <c r="D68" t="e">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>#N/A</v>
       </c>
       <c r="E68" t="e">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>#N/A</v>
       </c>
       <c r="F68" t="e">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>#N/A</v>
       </c>
       <c r="G68" t="e">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>#N/A</v>
       </c>
       <c r="H68" t="e">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>#N/A</v>
       </c>
       <c r="I68" t="e">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>#N/A</v>
       </c>
       <c r="J68" t="e">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>#N/A</v>
       </c>
       <c r="K68" t="e">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>#N/A</v>
       </c>
       <c r="L68" t="e">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>#N/A</v>
       </c>
       <c r="M68" t="e">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>#N/A</v>
       </c>
     </row>
@@ -13819,47 +13819,47 @@
         <v>354</v>
       </c>
       <c r="C69" t="e">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>#N/A</v>
       </c>
       <c r="D69" t="e">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>#N/A</v>
       </c>
       <c r="E69" t="e">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>#N/A</v>
       </c>
       <c r="F69" t="e">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>#N/A</v>
       </c>
       <c r="G69" t="e">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>#N/A</v>
       </c>
       <c r="H69" t="e">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>#N/A</v>
       </c>
       <c r="I69" t="e">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>#N/A</v>
       </c>
       <c r="J69" t="e">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>#N/A</v>
       </c>
       <c r="K69" t="e">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>#N/A</v>
       </c>
       <c r="L69" t="e">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>#N/A</v>
       </c>
       <c r="M69" t="e">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>#N/A</v>
       </c>
     </row>
@@ -13871,47 +13871,47 @@
         <v>355</v>
       </c>
       <c r="C70" t="e">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>#N/A</v>
       </c>
       <c r="D70" t="e">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>#N/A</v>
       </c>
       <c r="E70" t="e">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>#N/A</v>
       </c>
       <c r="F70" t="e">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>#N/A</v>
       </c>
       <c r="G70" t="e">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>#N/A</v>
       </c>
       <c r="H70" t="e">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>#N/A</v>
       </c>
       <c r="I70" t="e">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>#N/A</v>
       </c>
       <c r="J70" t="e">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>#N/A</v>
       </c>
       <c r="K70" t="e">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>#N/A</v>
       </c>
       <c r="L70" t="e">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>#N/A</v>
       </c>
       <c r="M70" t="e">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>#N/A</v>
       </c>
     </row>
@@ -13923,47 +13923,47 @@
         <v>356</v>
       </c>
       <c r="C71" t="e">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>#N/A</v>
       </c>
       <c r="D71" t="e">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>#N/A</v>
       </c>
       <c r="E71" t="e">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>#N/A</v>
       </c>
       <c r="F71" t="e">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>#N/A</v>
       </c>
       <c r="G71" t="e">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>#N/A</v>
       </c>
       <c r="H71" t="e">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>#N/A</v>
       </c>
       <c r="I71" t="e">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>#N/A</v>
       </c>
       <c r="J71" t="e">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>#N/A</v>
       </c>
       <c r="K71" t="e">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>#N/A</v>
       </c>
       <c r="L71" t="e">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>#N/A</v>
       </c>
       <c r="M71" t="e">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>#N/A</v>
       </c>
     </row>
@@ -13975,47 +13975,47 @@
         <v>357</v>
       </c>
       <c r="C72" t="e">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>#N/A</v>
       </c>
       <c r="D72" t="e">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>#N/A</v>
       </c>
       <c r="E72" t="e">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>#N/A</v>
       </c>
       <c r="F72" t="e">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>#N/A</v>
       </c>
       <c r="G72" t="e">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>#N/A</v>
       </c>
       <c r="H72" t="e">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>#N/A</v>
       </c>
       <c r="I72" t="e">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>#N/A</v>
       </c>
       <c r="J72" t="e">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>#N/A</v>
       </c>
       <c r="K72" t="e">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>#N/A</v>
       </c>
       <c r="L72" t="e">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>#N/A</v>
       </c>
       <c r="M72" t="e">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>#N/A</v>
       </c>
     </row>
@@ -14027,47 +14027,47 @@
         <v>358</v>
       </c>
       <c r="C73" t="e">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>#N/A</v>
       </c>
       <c r="D73" t="e">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>#N/A</v>
       </c>
       <c r="E73" t="e">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>#N/A</v>
       </c>
       <c r="F73" t="e">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>#N/A</v>
       </c>
       <c r="G73" t="e">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>#N/A</v>
       </c>
       <c r="H73" t="e">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>#N/A</v>
       </c>
       <c r="I73" t="e">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>#N/A</v>
       </c>
       <c r="J73" t="e">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>#N/A</v>
       </c>
       <c r="K73" t="e">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>#N/A</v>
       </c>
       <c r="L73" t="e">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>#N/A</v>
       </c>
       <c r="M73" t="e">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>#N/A</v>
       </c>
     </row>
@@ -14079,47 +14079,47 @@
         <v>359</v>
       </c>
       <c r="C74" t="e">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>#N/A</v>
       </c>
       <c r="D74" t="e">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>#N/A</v>
       </c>
       <c r="E74" t="e">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>#N/A</v>
       </c>
       <c r="F74" t="e">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>#N/A</v>
       </c>
       <c r="G74" t="e">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>#N/A</v>
       </c>
       <c r="H74" t="e">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>#N/A</v>
       </c>
       <c r="I74" t="e">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>#N/A</v>
       </c>
       <c r="J74" t="e">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>#N/A</v>
       </c>
       <c r="K74" t="e">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>#N/A</v>
       </c>
       <c r="L74" t="e">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>#N/A</v>
       </c>
       <c r="M74" t="e">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>#N/A</v>
       </c>
     </row>
@@ -14131,47 +14131,47 @@
         <v>360</v>
       </c>
       <c r="C75" t="e">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>#N/A</v>
       </c>
       <c r="D75" t="e">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>#N/A</v>
       </c>
       <c r="E75" t="e">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>#N/A</v>
       </c>
       <c r="F75" t="e">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>#N/A</v>
       </c>
       <c r="G75" t="e">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>#N/A</v>
       </c>
       <c r="H75" t="e">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>#N/A</v>
       </c>
       <c r="I75" t="e">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>#N/A</v>
       </c>
       <c r="J75" t="e">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>#N/A</v>
       </c>
       <c r="K75" t="e">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>#N/A</v>
       </c>
       <c r="L75" t="e">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>#N/A</v>
       </c>
       <c r="M75" t="e">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>#N/A</v>
       </c>
     </row>
@@ -14183,47 +14183,47 @@
         <v>361</v>
       </c>
       <c r="C76" t="e">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>#N/A</v>
       </c>
       <c r="D76" t="e">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>#N/A</v>
       </c>
       <c r="E76" t="e">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>#N/A</v>
       </c>
       <c r="F76" t="e">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>#N/A</v>
       </c>
       <c r="G76" t="e">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>#N/A</v>
       </c>
       <c r="H76" t="e">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>#N/A</v>
       </c>
       <c r="I76" t="e">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>#N/A</v>
       </c>
       <c r="J76" t="e">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>#N/A</v>
       </c>
       <c r="K76" t="e">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>#N/A</v>
       </c>
       <c r="L76" t="e">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>#N/A</v>
       </c>
       <c r="M76" t="e">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>#N/A</v>
       </c>
     </row>
@@ -14235,47 +14235,47 @@
         <v>362</v>
       </c>
       <c r="C77" t="e">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>#N/A</v>
       </c>
       <c r="D77" t="e">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>#N/A</v>
       </c>
       <c r="E77" t="e">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>#N/A</v>
       </c>
       <c r="F77" t="e">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>#N/A</v>
       </c>
       <c r="G77" t="e">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>#N/A</v>
       </c>
       <c r="H77" t="e">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>#N/A</v>
       </c>
       <c r="I77" t="e">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>#N/A</v>
       </c>
       <c r="J77" t="e">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>#N/A</v>
       </c>
       <c r="K77" t="e">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>#N/A</v>
       </c>
       <c r="L77" t="e">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>#N/A</v>
       </c>
       <c r="M77" t="e">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>#N/A</v>
       </c>
     </row>
@@ -14287,47 +14287,47 @@
         <v>363</v>
       </c>
       <c r="C78" t="e">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>#N/A</v>
       </c>
       <c r="D78" t="e">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>#N/A</v>
       </c>
       <c r="E78" t="e">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>#N/A</v>
       </c>
       <c r="F78" t="e">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>#N/A</v>
       </c>
       <c r="G78" t="e">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>#N/A</v>
       </c>
       <c r="H78" t="e">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>#N/A</v>
       </c>
       <c r="I78" t="e">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>#N/A</v>
       </c>
       <c r="J78" t="e">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>#N/A</v>
       </c>
       <c r="K78" t="e">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>#N/A</v>
       </c>
       <c r="L78" t="e">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>#N/A</v>
       </c>
       <c r="M78" t="e">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>#N/A</v>
       </c>
     </row>
@@ -14339,47 +14339,47 @@
         <v>364</v>
       </c>
       <c r="C79" t="e">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>#N/A</v>
       </c>
       <c r="D79" t="e">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>#N/A</v>
       </c>
       <c r="E79" t="e">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>#N/A</v>
       </c>
       <c r="F79" t="e">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>#N/A</v>
       </c>
       <c r="G79" t="e">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>#N/A</v>
       </c>
       <c r="H79" t="e">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>#N/A</v>
       </c>
       <c r="I79" t="e">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>#N/A</v>
       </c>
       <c r="J79" t="e">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>#N/A</v>
       </c>
       <c r="K79" t="e">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>#N/A</v>
       </c>
       <c r="L79" t="e">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>#N/A</v>
       </c>
       <c r="M79" t="e">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>#N/A</v>
       </c>
     </row>
@@ -14391,47 +14391,47 @@
         <v>365</v>
       </c>
       <c r="C80" t="e">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>#N/A</v>
       </c>
       <c r="D80" t="e">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>#N/A</v>
       </c>
       <c r="E80" t="e">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>#N/A</v>
       </c>
       <c r="F80" t="e">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>#N/A</v>
       </c>
       <c r="G80" t="e">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>#N/A</v>
       </c>
       <c r="H80" t="e">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>#N/A</v>
       </c>
       <c r="I80" t="e">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>#N/A</v>
       </c>
       <c r="J80" t="e">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>#N/A</v>
       </c>
       <c r="K80" t="e">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>#N/A</v>
       </c>
       <c r="L80" t="e">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>#N/A</v>
       </c>
       <c r="M80" t="e">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>#N/A</v>
       </c>
     </row>
@@ -14443,47 +14443,47 @@
         <v>366</v>
       </c>
       <c r="C81" t="e">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>#N/A</v>
       </c>
       <c r="D81" t="e">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>#N/A</v>
       </c>
       <c r="E81" t="e">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>#N/A</v>
       </c>
       <c r="F81" t="e">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>#N/A</v>
       </c>
       <c r="G81" t="e">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>#N/A</v>
       </c>
       <c r="H81" t="e">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>#N/A</v>
       </c>
       <c r="I81" t="e">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>#N/A</v>
       </c>
       <c r="J81" t="e">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>#N/A</v>
       </c>
       <c r="K81" t="e">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>#N/A</v>
       </c>
       <c r="L81" t="e">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>#N/A</v>
       </c>
       <c r="M81" t="e">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>#N/A</v>
       </c>
     </row>
@@ -14495,47 +14495,47 @@
         <v>367</v>
       </c>
       <c r="C82" t="e">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>#N/A</v>
       </c>
       <c r="D82" t="e">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>#N/A</v>
       </c>
       <c r="E82" t="e">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>#N/A</v>
       </c>
       <c r="F82" t="e">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>#N/A</v>
       </c>
       <c r="G82" t="e">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>#N/A</v>
       </c>
       <c r="H82" t="e">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>#N/A</v>
       </c>
       <c r="I82" t="e">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>#N/A</v>
       </c>
       <c r="J82" t="e">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>#N/A</v>
       </c>
       <c r="K82" t="e">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>#N/A</v>
       </c>
       <c r="L82" t="e">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>#N/A</v>
       </c>
       <c r="M82" t="e">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>#N/A</v>
       </c>
     </row>
@@ -14547,47 +14547,47 @@
         <v>368</v>
       </c>
       <c r="C83" t="e">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>#N/A</v>
       </c>
       <c r="D83" t="e">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>#N/A</v>
       </c>
       <c r="E83" t="e">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>#N/A</v>
       </c>
       <c r="F83" t="e">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>#N/A</v>
       </c>
       <c r="G83" t="e">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>#N/A</v>
       </c>
       <c r="H83" t="e">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>#N/A</v>
       </c>
       <c r="I83" t="e">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>#N/A</v>
       </c>
       <c r="J83" t="e">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>#N/A</v>
       </c>
       <c r="K83" t="e">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>#N/A</v>
       </c>
       <c r="L83" t="e">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>#N/A</v>
       </c>
       <c r="M83" t="e">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>#N/A</v>
       </c>
     </row>
@@ -14599,47 +14599,47 @@
         <v>369</v>
       </c>
       <c r="C84" t="e">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>#N/A</v>
       </c>
       <c r="D84" t="e">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>#N/A</v>
       </c>
       <c r="E84" t="e">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>#N/A</v>
       </c>
       <c r="F84" t="e">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>#N/A</v>
       </c>
       <c r="G84" t="e">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>#N/A</v>
       </c>
       <c r="H84" t="e">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>#N/A</v>
       </c>
       <c r="I84" t="e">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>#N/A</v>
       </c>
       <c r="J84" t="e">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>#N/A</v>
       </c>
       <c r="K84" t="e">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>#N/A</v>
       </c>
       <c r="L84" t="e">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>#N/A</v>
       </c>
       <c r="M84" t="e">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>#N/A</v>
       </c>
     </row>
@@ -14651,47 +14651,47 @@
         <v>370</v>
       </c>
       <c r="C85" t="e">
-        <f t="shared" ref="C85:C116" si="22">VLOOKUP(B85,$AP$4:$BE$26,3,FALSE)</f>
+        <f t="shared" si="14"/>
         <v>#N/A</v>
       </c>
       <c r="D85" t="e">
-        <f t="shared" ref="D85:D109" si="23">VLOOKUP(B85,$AP$4:$BE$26,4,FALSE)</f>
+        <f t="shared" si="15"/>
         <v>#N/A</v>
       </c>
       <c r="E85" t="e">
-        <f t="shared" ref="E85:E109" si="24">VLOOKUP(B85,$AP$4:$BE$26,5,FALSE)</f>
+        <f t="shared" si="16"/>
         <v>#N/A</v>
       </c>
       <c r="F85" t="e">
-        <f t="shared" ref="F85:F109" si="25">VLOOKUP(B85,$AP$4:$BE$26,6,FALSE)</f>
+        <f t="shared" si="17"/>
         <v>#N/A</v>
       </c>
       <c r="G85" t="e">
-        <f t="shared" ref="G85:G109" si="26">VLOOKUP(B85,$AP$4:$BE$26,7,FALSE)</f>
+        <f t="shared" si="18"/>
         <v>#N/A</v>
       </c>
       <c r="H85" t="e">
-        <f t="shared" ref="H85:H109" si="27">VLOOKUP(B85,$AP$4:$BE$26,8,FALSE)</f>
+        <f t="shared" si="19"/>
         <v>#N/A</v>
       </c>
       <c r="I85" t="e">
-        <f t="shared" ref="I85:I109" si="28">VLOOKUP(B85,$AP$4:$BE$26,12,FALSE)</f>
+        <f t="shared" si="20"/>
         <v>#N/A</v>
       </c>
       <c r="J85" t="e">
-        <f t="shared" ref="J85:J109" si="29">VLOOKUP(B85,$AP$4:$BE$26,11,FALSE)</f>
+        <f t="shared" si="21"/>
         <v>#N/A</v>
       </c>
       <c r="K85" t="e">
-        <f t="shared" ref="K85:K109" si="30">VLOOKUP(B85,$AP$4:$BE$26,13,FALSE)</f>
+        <f t="shared" si="22"/>
         <v>#N/A</v>
       </c>
       <c r="L85" t="e">
-        <f t="shared" ref="L85:L109" si="31">VLOOKUP(B85,$AP$4:$BE$26,16,FALSE)</f>
+        <f t="shared" si="23"/>
         <v>#N/A</v>
       </c>
       <c r="M85" t="e">
-        <f t="shared" ref="M85:M109" si="32">VLOOKUP(B85,$AP$4:$BE$26,15,FALSE)</f>
+        <f t="shared" si="24"/>
         <v>#N/A</v>
       </c>
     </row>
@@ -14703,47 +14703,47 @@
         <v>371</v>
       </c>
       <c r="C86" t="e">
+        <f t="shared" si="14"/>
+        <v>#N/A</v>
+      </c>
+      <c r="D86" t="e">
+        <f t="shared" si="15"/>
+        <v>#N/A</v>
+      </c>
+      <c r="E86" t="e">
+        <f t="shared" si="16"/>
+        <v>#N/A</v>
+      </c>
+      <c r="F86" t="e">
+        <f t="shared" si="17"/>
+        <v>#N/A</v>
+      </c>
+      <c r="G86" t="e">
+        <f t="shared" si="18"/>
+        <v>#N/A</v>
+      </c>
+      <c r="H86" t="e">
+        <f t="shared" si="19"/>
+        <v>#N/A</v>
+      </c>
+      <c r="I86" t="e">
+        <f t="shared" si="20"/>
+        <v>#N/A</v>
+      </c>
+      <c r="J86" t="e">
+        <f t="shared" si="21"/>
+        <v>#N/A</v>
+      </c>
+      <c r="K86" t="e">
         <f t="shared" si="22"/>
         <v>#N/A</v>
       </c>
-      <c r="D86" t="e">
+      <c r="L86" t="e">
         <f t="shared" si="23"/>
         <v>#N/A</v>
       </c>
-      <c r="E86" t="e">
+      <c r="M86" t="e">
         <f t="shared" si="24"/>
-        <v>#N/A</v>
-      </c>
-      <c r="F86" t="e">
-        <f t="shared" si="25"/>
-        <v>#N/A</v>
-      </c>
-      <c r="G86" t="e">
-        <f t="shared" si="26"/>
-        <v>#N/A</v>
-      </c>
-      <c r="H86" t="e">
-        <f t="shared" si="27"/>
-        <v>#N/A</v>
-      </c>
-      <c r="I86" t="e">
-        <f t="shared" si="28"/>
-        <v>#N/A</v>
-      </c>
-      <c r="J86" t="e">
-        <f t="shared" si="29"/>
-        <v>#N/A</v>
-      </c>
-      <c r="K86" t="e">
-        <f t="shared" si="30"/>
-        <v>#N/A</v>
-      </c>
-      <c r="L86" t="e">
-        <f t="shared" si="31"/>
-        <v>#N/A</v>
-      </c>
-      <c r="M86" t="e">
-        <f t="shared" si="32"/>
         <v>#N/A</v>
       </c>
     </row>
@@ -14755,47 +14755,47 @@
         <v>372</v>
       </c>
       <c r="C87" t="e">
+        <f t="shared" si="14"/>
+        <v>#N/A</v>
+      </c>
+      <c r="D87" t="e">
+        <f t="shared" si="15"/>
+        <v>#N/A</v>
+      </c>
+      <c r="E87" t="e">
+        <f t="shared" si="16"/>
+        <v>#N/A</v>
+      </c>
+      <c r="F87" t="e">
+        <f t="shared" si="17"/>
+        <v>#N/A</v>
+      </c>
+      <c r="G87" t="e">
+        <f t="shared" si="18"/>
+        <v>#N/A</v>
+      </c>
+      <c r="H87" t="e">
+        <f t="shared" si="19"/>
+        <v>#N/A</v>
+      </c>
+      <c r="I87" t="e">
+        <f t="shared" si="20"/>
+        <v>#N/A</v>
+      </c>
+      <c r="J87" t="e">
+        <f t="shared" si="21"/>
+        <v>#N/A</v>
+      </c>
+      <c r="K87" t="e">
         <f t="shared" si="22"/>
         <v>#N/A</v>
       </c>
-      <c r="D87" t="e">
+      <c r="L87" t="e">
         <f t="shared" si="23"/>
         <v>#N/A</v>
       </c>
-      <c r="E87" t="e">
+      <c r="M87" t="e">
         <f t="shared" si="24"/>
-        <v>#N/A</v>
-      </c>
-      <c r="F87" t="e">
-        <f t="shared" si="25"/>
-        <v>#N/A</v>
-      </c>
-      <c r="G87" t="e">
-        <f t="shared" si="26"/>
-        <v>#N/A</v>
-      </c>
-      <c r="H87" t="e">
-        <f t="shared" si="27"/>
-        <v>#N/A</v>
-      </c>
-      <c r="I87" t="e">
-        <f t="shared" si="28"/>
-        <v>#N/A</v>
-      </c>
-      <c r="J87" t="e">
-        <f t="shared" si="29"/>
-        <v>#N/A</v>
-      </c>
-      <c r="K87" t="e">
-        <f t="shared" si="30"/>
-        <v>#N/A</v>
-      </c>
-      <c r="L87" t="e">
-        <f t="shared" si="31"/>
-        <v>#N/A</v>
-      </c>
-      <c r="M87" t="e">
-        <f t="shared" si="32"/>
         <v>#N/A</v>
       </c>
     </row>
@@ -14807,47 +14807,47 @@
         <v>373</v>
       </c>
       <c r="C88" t="e">
+        <f t="shared" si="14"/>
+        <v>#N/A</v>
+      </c>
+      <c r="D88" t="e">
+        <f t="shared" si="15"/>
+        <v>#N/A</v>
+      </c>
+      <c r="E88" t="e">
+        <f t="shared" si="16"/>
+        <v>#N/A</v>
+      </c>
+      <c r="F88" t="e">
+        <f t="shared" si="17"/>
+        <v>#N/A</v>
+      </c>
+      <c r="G88" t="e">
+        <f t="shared" si="18"/>
+        <v>#N/A</v>
+      </c>
+      <c r="H88" t="e">
+        <f t="shared" si="19"/>
+        <v>#N/A</v>
+      </c>
+      <c r="I88" t="e">
+        <f t="shared" si="20"/>
+        <v>#N/A</v>
+      </c>
+      <c r="J88" t="e">
+        <f t="shared" si="21"/>
+        <v>#N/A</v>
+      </c>
+      <c r="K88" t="e">
         <f t="shared" si="22"/>
         <v>#N/A</v>
       </c>
-      <c r="D88" t="e">
+      <c r="L88" t="e">
         <f t="shared" si="23"/>
         <v>#N/A</v>
       </c>
-      <c r="E88" t="e">
+      <c r="M88" t="e">
         <f t="shared" si="24"/>
-        <v>#N/A</v>
-      </c>
-      <c r="F88" t="e">
-        <f t="shared" si="25"/>
-        <v>#N/A</v>
-      </c>
-      <c r="G88" t="e">
-        <f t="shared" si="26"/>
-        <v>#N/A</v>
-      </c>
-      <c r="H88" t="e">
-        <f t="shared" si="27"/>
-        <v>#N/A</v>
-      </c>
-      <c r="I88" t="e">
-        <f t="shared" si="28"/>
-        <v>#N/A</v>
-      </c>
-      <c r="J88" t="e">
-        <f t="shared" si="29"/>
-        <v>#N/A</v>
-      </c>
-      <c r="K88" t="e">
-        <f t="shared" si="30"/>
-        <v>#N/A</v>
-      </c>
-      <c r="L88" t="e">
-        <f t="shared" si="31"/>
-        <v>#N/A</v>
-      </c>
-      <c r="M88" t="e">
-        <f t="shared" si="32"/>
         <v>#N/A</v>
       </c>
     </row>
@@ -14859,47 +14859,47 @@
         <v>374</v>
       </c>
       <c r="C89" t="e">
+        <f t="shared" si="14"/>
+        <v>#N/A</v>
+      </c>
+      <c r="D89" t="e">
+        <f t="shared" si="15"/>
+        <v>#N/A</v>
+      </c>
+      <c r="E89" t="e">
+        <f t="shared" si="16"/>
+        <v>#N/A</v>
+      </c>
+      <c r="F89" t="e">
+        <f t="shared" si="17"/>
+        <v>#N/A</v>
+      </c>
+      <c r="G89" t="e">
+        <f t="shared" si="18"/>
+        <v>#N/A</v>
+      </c>
+      <c r="H89" t="e">
+        <f t="shared" si="19"/>
+        <v>#N/A</v>
+      </c>
+      <c r="I89" t="e">
+        <f t="shared" si="20"/>
+        <v>#N/A</v>
+      </c>
+      <c r="J89" t="e">
+        <f t="shared" si="21"/>
+        <v>#N/A</v>
+      </c>
+      <c r="K89" t="e">
         <f t="shared" si="22"/>
         <v>#N/A</v>
       </c>
-      <c r="D89" t="e">
+      <c r="L89" t="e">
         <f t="shared" si="23"/>
         <v>#N/A</v>
       </c>
-      <c r="E89" t="e">
+      <c r="M89" t="e">
         <f t="shared" si="24"/>
-        <v>#N/A</v>
-      </c>
-      <c r="F89" t="e">
-        <f t="shared" si="25"/>
-        <v>#N/A</v>
-      </c>
-      <c r="G89" t="e">
-        <f t="shared" si="26"/>
-        <v>#N/A</v>
-      </c>
-      <c r="H89" t="e">
-        <f t="shared" si="27"/>
-        <v>#N/A</v>
-      </c>
-      <c r="I89" t="e">
-        <f t="shared" si="28"/>
-        <v>#N/A</v>
-      </c>
-      <c r="J89" t="e">
-        <f t="shared" si="29"/>
-        <v>#N/A</v>
-      </c>
-      <c r="K89" t="e">
-        <f t="shared" si="30"/>
-        <v>#N/A</v>
-      </c>
-      <c r="L89" t="e">
-        <f t="shared" si="31"/>
-        <v>#N/A</v>
-      </c>
-      <c r="M89" t="e">
-        <f t="shared" si="32"/>
         <v>#N/A</v>
       </c>
     </row>
@@ -14911,47 +14911,47 @@
         <v>375</v>
       </c>
       <c r="C90" t="e">
+        <f t="shared" si="14"/>
+        <v>#N/A</v>
+      </c>
+      <c r="D90" t="e">
+        <f t="shared" si="15"/>
+        <v>#N/A</v>
+      </c>
+      <c r="E90" t="e">
+        <f t="shared" si="16"/>
+        <v>#N/A</v>
+      </c>
+      <c r="F90" t="e">
+        <f t="shared" si="17"/>
+        <v>#N/A</v>
+      </c>
+      <c r="G90" t="e">
+        <f t="shared" si="18"/>
+        <v>#N/A</v>
+      </c>
+      <c r="H90" t="e">
+        <f t="shared" si="19"/>
+        <v>#N/A</v>
+      </c>
+      <c r="I90" t="e">
+        <f t="shared" si="20"/>
+        <v>#N/A</v>
+      </c>
+      <c r="J90" t="e">
+        <f t="shared" si="21"/>
+        <v>#N/A</v>
+      </c>
+      <c r="K90" t="e">
         <f t="shared" si="22"/>
         <v>#N/A</v>
       </c>
-      <c r="D90" t="e">
+      <c r="L90" t="e">
         <f t="shared" si="23"/>
         <v>#N/A</v>
       </c>
-      <c r="E90" t="e">
+      <c r="M90" t="e">
         <f t="shared" si="24"/>
-        <v>#N/A</v>
-      </c>
-      <c r="F90" t="e">
-        <f t="shared" si="25"/>
-        <v>#N/A</v>
-      </c>
-      <c r="G90" t="e">
-        <f t="shared" si="26"/>
-        <v>#N/A</v>
-      </c>
-      <c r="H90" t="e">
-        <f t="shared" si="27"/>
-        <v>#N/A</v>
-      </c>
-      <c r="I90" t="e">
-        <f t="shared" si="28"/>
-        <v>#N/A</v>
-      </c>
-      <c r="J90" t="e">
-        <f t="shared" si="29"/>
-        <v>#N/A</v>
-      </c>
-      <c r="K90" t="e">
-        <f t="shared" si="30"/>
-        <v>#N/A</v>
-      </c>
-      <c r="L90" t="e">
-        <f t="shared" si="31"/>
-        <v>#N/A</v>
-      </c>
-      <c r="M90" t="e">
-        <f t="shared" si="32"/>
         <v>#N/A</v>
       </c>
     </row>
@@ -14963,47 +14963,47 @@
         <v>376</v>
       </c>
       <c r="C91" t="e">
+        <f t="shared" si="14"/>
+        <v>#N/A</v>
+      </c>
+      <c r="D91" t="e">
+        <f t="shared" si="15"/>
+        <v>#N/A</v>
+      </c>
+      <c r="E91" t="e">
+        <f t="shared" si="16"/>
+        <v>#N/A</v>
+      </c>
+      <c r="F91" t="e">
+        <f t="shared" si="17"/>
+        <v>#N/A</v>
+      </c>
+      <c r="G91" t="e">
+        <f t="shared" si="18"/>
+        <v>#N/A</v>
+      </c>
+      <c r="H91" t="e">
+        <f t="shared" si="19"/>
+        <v>#N/A</v>
+      </c>
+      <c r="I91" t="e">
+        <f t="shared" si="20"/>
+        <v>#N/A</v>
+      </c>
+      <c r="J91" t="e">
+        <f t="shared" si="21"/>
+        <v>#N/A</v>
+      </c>
+      <c r="K91" t="e">
         <f t="shared" si="22"/>
         <v>#N/A</v>
       </c>
-      <c r="D91" t="e">
+      <c r="L91" t="e">
         <f t="shared" si="23"/>
         <v>#N/A</v>
       </c>
-      <c r="E91" t="e">
+      <c r="M91" t="e">
         <f t="shared" si="24"/>
-        <v>#N/A</v>
-      </c>
-      <c r="F91" t="e">
-        <f t="shared" si="25"/>
-        <v>#N/A</v>
-      </c>
-      <c r="G91" t="e">
-        <f t="shared" si="26"/>
-        <v>#N/A</v>
-      </c>
-      <c r="H91" t="e">
-        <f t="shared" si="27"/>
-        <v>#N/A</v>
-      </c>
-      <c r="I91" t="e">
-        <f t="shared" si="28"/>
-        <v>#N/A</v>
-      </c>
-      <c r="J91" t="e">
-        <f t="shared" si="29"/>
-        <v>#N/A</v>
-      </c>
-      <c r="K91" t="e">
-        <f t="shared" si="30"/>
-        <v>#N/A</v>
-      </c>
-      <c r="L91" t="e">
-        <f t="shared" si="31"/>
-        <v>#N/A</v>
-      </c>
-      <c r="M91" t="e">
-        <f t="shared" si="32"/>
         <v>#N/A</v>
       </c>
     </row>
@@ -15015,47 +15015,47 @@
         <v>377</v>
       </c>
       <c r="C92" t="e">
+        <f t="shared" si="14"/>
+        <v>#N/A</v>
+      </c>
+      <c r="D92" t="e">
+        <f t="shared" si="15"/>
+        <v>#N/A</v>
+      </c>
+      <c r="E92" t="e">
+        <f t="shared" si="16"/>
+        <v>#N/A</v>
+      </c>
+      <c r="F92" t="e">
+        <f t="shared" si="17"/>
+        <v>#N/A</v>
+      </c>
+      <c r="G92" t="e">
+        <f t="shared" si="18"/>
+        <v>#N/A</v>
+      </c>
+      <c r="H92" t="e">
+        <f t="shared" si="19"/>
+        <v>#N/A</v>
+      </c>
+      <c r="I92" t="e">
+        <f t="shared" si="20"/>
+        <v>#N/A</v>
+      </c>
+      <c r="J92" t="e">
+        <f t="shared" si="21"/>
+        <v>#N/A</v>
+      </c>
+      <c r="K92" t="e">
         <f t="shared" si="22"/>
         <v>#N/A</v>
       </c>
-      <c r="D92" t="e">
+      <c r="L92" t="e">
         <f t="shared" si="23"/>
         <v>#N/A</v>
       </c>
-      <c r="E92" t="e">
+      <c r="M92" t="e">
         <f t="shared" si="24"/>
-        <v>#N/A</v>
-      </c>
-      <c r="F92" t="e">
-        <f t="shared" si="25"/>
-        <v>#N/A</v>
-      </c>
-      <c r="G92" t="e">
-        <f t="shared" si="26"/>
-        <v>#N/A</v>
-      </c>
-      <c r="H92" t="e">
-        <f t="shared" si="27"/>
-        <v>#N/A</v>
-      </c>
-      <c r="I92" t="e">
-        <f t="shared" si="28"/>
-        <v>#N/A</v>
-      </c>
-      <c r="J92" t="e">
-        <f t="shared" si="29"/>
-        <v>#N/A</v>
-      </c>
-      <c r="K92" t="e">
-        <f t="shared" si="30"/>
-        <v>#N/A</v>
-      </c>
-      <c r="L92" t="e">
-        <f t="shared" si="31"/>
-        <v>#N/A</v>
-      </c>
-      <c r="M92" t="e">
-        <f t="shared" si="32"/>
         <v>#N/A</v>
       </c>
     </row>
@@ -15067,47 +15067,47 @@
         <v>378</v>
       </c>
       <c r="C93" t="e">
+        <f t="shared" si="14"/>
+        <v>#N/A</v>
+      </c>
+      <c r="D93" t="e">
+        <f t="shared" si="15"/>
+        <v>#N/A</v>
+      </c>
+      <c r="E93" t="e">
+        <f t="shared" si="16"/>
+        <v>#N/A</v>
+      </c>
+      <c r="F93" t="e">
+        <f t="shared" si="17"/>
+        <v>#N/A</v>
+      </c>
+      <c r="G93" t="e">
+        <f t="shared" si="18"/>
+        <v>#N/A</v>
+      </c>
+      <c r="H93" t="e">
+        <f t="shared" si="19"/>
+        <v>#N/A</v>
+      </c>
+      <c r="I93" t="e">
+        <f t="shared" si="20"/>
+        <v>#N/A</v>
+      </c>
+      <c r="J93" t="e">
+        <f t="shared" si="21"/>
+        <v>#N/A</v>
+      </c>
+      <c r="K93" t="e">
         <f t="shared" si="22"/>
         <v>#N/A</v>
       </c>
-      <c r="D93" t="e">
+      <c r="L93" t="e">
         <f t="shared" si="23"/>
         <v>#N/A</v>
       </c>
-      <c r="E93" t="e">
+      <c r="M93" t="e">
         <f t="shared" si="24"/>
-        <v>#N/A</v>
-      </c>
-      <c r="F93" t="e">
-        <f t="shared" si="25"/>
-        <v>#N/A</v>
-      </c>
-      <c r="G93" t="e">
-        <f t="shared" si="26"/>
-        <v>#N/A</v>
-      </c>
-      <c r="H93" t="e">
-        <f t="shared" si="27"/>
-        <v>#N/A</v>
-      </c>
-      <c r="I93" t="e">
-        <f t="shared" si="28"/>
-        <v>#N/A</v>
-      </c>
-      <c r="J93" t="e">
-        <f t="shared" si="29"/>
-        <v>#N/A</v>
-      </c>
-      <c r="K93" t="e">
-        <f t="shared" si="30"/>
-        <v>#N/A</v>
-      </c>
-      <c r="L93" t="e">
-        <f t="shared" si="31"/>
-        <v>#N/A</v>
-      </c>
-      <c r="M93" t="e">
-        <f t="shared" si="32"/>
         <v>#N/A</v>
       </c>
     </row>
@@ -15119,47 +15119,47 @@
         <v>379</v>
       </c>
       <c r="C94" t="e">
+        <f t="shared" si="14"/>
+        <v>#N/A</v>
+      </c>
+      <c r="D94" t="e">
+        <f t="shared" si="15"/>
+        <v>#N/A</v>
+      </c>
+      <c r="E94" t="e">
+        <f t="shared" si="16"/>
+        <v>#N/A</v>
+      </c>
+      <c r="F94" t="e">
+        <f t="shared" si="17"/>
+        <v>#N/A</v>
+      </c>
+      <c r="G94" t="e">
+        <f t="shared" si="18"/>
+        <v>#N/A</v>
+      </c>
+      <c r="H94" t="e">
+        <f t="shared" si="19"/>
+        <v>#N/A</v>
+      </c>
+      <c r="I94" t="e">
+        <f t="shared" si="20"/>
+        <v>#N/A</v>
+      </c>
+      <c r="J94" t="e">
+        <f t="shared" si="21"/>
+        <v>#N/A</v>
+      </c>
+      <c r="K94" t="e">
         <f t="shared" si="22"/>
         <v>#N/A</v>
       </c>
-      <c r="D94" t="e">
+      <c r="L94" t="e">
         <f t="shared" si="23"/>
         <v>#N/A</v>
       </c>
-      <c r="E94" t="e">
+      <c r="M94" t="e">
         <f t="shared" si="24"/>
-        <v>#N/A</v>
-      </c>
-      <c r="F94" t="e">
-        <f t="shared" si="25"/>
-        <v>#N/A</v>
-      </c>
-      <c r="G94" t="e">
-        <f t="shared" si="26"/>
-        <v>#N/A</v>
-      </c>
-      <c r="H94" t="e">
-        <f t="shared" si="27"/>
-        <v>#N/A</v>
-      </c>
-      <c r="I94" t="e">
-        <f t="shared" si="28"/>
-        <v>#N/A</v>
-      </c>
-      <c r="J94" t="e">
-        <f t="shared" si="29"/>
-        <v>#N/A</v>
-      </c>
-      <c r="K94" t="e">
-        <f t="shared" si="30"/>
-        <v>#N/A</v>
-      </c>
-      <c r="L94" t="e">
-        <f t="shared" si="31"/>
-        <v>#N/A</v>
-      </c>
-      <c r="M94" t="e">
-        <f t="shared" si="32"/>
         <v>#N/A</v>
       </c>
     </row>
@@ -15171,47 +15171,47 @@
         <v>380</v>
       </c>
       <c r="C95" t="e">
+        <f t="shared" si="14"/>
+        <v>#N/A</v>
+      </c>
+      <c r="D95" t="e">
+        <f t="shared" si="15"/>
+        <v>#N/A</v>
+      </c>
+      <c r="E95" t="e">
+        <f t="shared" si="16"/>
+        <v>#N/A</v>
+      </c>
+      <c r="F95" t="e">
+        <f t="shared" si="17"/>
+        <v>#N/A</v>
+      </c>
+      <c r="G95" t="e">
+        <f t="shared" si="18"/>
+        <v>#N/A</v>
+      </c>
+      <c r="H95" t="e">
+        <f t="shared" si="19"/>
+        <v>#N/A</v>
+      </c>
+      <c r="I95" t="e">
+        <f t="shared" si="20"/>
+        <v>#N/A</v>
+      </c>
+      <c r="J95" t="e">
+        <f t="shared" si="21"/>
+        <v>#N/A</v>
+      </c>
+      <c r="K95" t="e">
         <f t="shared" si="22"/>
         <v>#N/A</v>
       </c>
-      <c r="D95" t="e">
+      <c r="L95" t="e">
         <f t="shared" si="23"/>
         <v>#N/A</v>
       </c>
-      <c r="E95" t="e">
+      <c r="M95" t="e">
         <f t="shared" si="24"/>
-        <v>#N/A</v>
-      </c>
-      <c r="F95" t="e">
-        <f t="shared" si="25"/>
-        <v>#N/A</v>
-      </c>
-      <c r="G95" t="e">
-        <f t="shared" si="26"/>
-        <v>#N/A</v>
-      </c>
-      <c r="H95" t="e">
-        <f t="shared" si="27"/>
-        <v>#N/A</v>
-      </c>
-      <c r="I95" t="e">
-        <f t="shared" si="28"/>
-        <v>#N/A</v>
-      </c>
-      <c r="J95" t="e">
-        <f t="shared" si="29"/>
-        <v>#N/A</v>
-      </c>
-      <c r="K95" t="e">
-        <f t="shared" si="30"/>
-        <v>#N/A</v>
-      </c>
-      <c r="L95" t="e">
-        <f t="shared" si="31"/>
-        <v>#N/A</v>
-      </c>
-      <c r="M95" t="e">
-        <f t="shared" si="32"/>
         <v>#N/A</v>
       </c>
     </row>
@@ -15223,47 +15223,47 @@
         <v>381</v>
       </c>
       <c r="C96" t="e">
+        <f t="shared" si="14"/>
+        <v>#N/A</v>
+      </c>
+      <c r="D96" t="e">
+        <f t="shared" si="15"/>
+        <v>#N/A</v>
+      </c>
+      <c r="E96" t="e">
+        <f t="shared" si="16"/>
+        <v>#N/A</v>
+      </c>
+      <c r="F96" t="e">
+        <f t="shared" si="17"/>
+        <v>#N/A</v>
+      </c>
+      <c r="G96" t="e">
+        <f t="shared" si="18"/>
+        <v>#N/A</v>
+      </c>
+      <c r="H96" t="e">
+        <f t="shared" si="19"/>
+        <v>#N/A</v>
+      </c>
+      <c r="I96" t="e">
+        <f t="shared" si="20"/>
+        <v>#N/A</v>
+      </c>
+      <c r="J96" t="e">
+        <f t="shared" si="21"/>
+        <v>#N/A</v>
+      </c>
+      <c r="K96" t="e">
         <f t="shared" si="22"/>
         <v>#N/A</v>
       </c>
-      <c r="D96" t="e">
+      <c r="L96" t="e">
         <f t="shared" si="23"/>
         <v>#N/A</v>
       </c>
-      <c r="E96" t="e">
+      <c r="M96" t="e">
         <f t="shared" si="24"/>
-        <v>#N/A</v>
-      </c>
-      <c r="F96" t="e">
-        <f t="shared" si="25"/>
-        <v>#N/A</v>
-      </c>
-      <c r="G96" t="e">
-        <f t="shared" si="26"/>
-        <v>#N/A</v>
-      </c>
-      <c r="H96" t="e">
-        <f t="shared" si="27"/>
-        <v>#N/A</v>
-      </c>
-      <c r="I96" t="e">
-        <f t="shared" si="28"/>
-        <v>#N/A</v>
-      </c>
-      <c r="J96" t="e">
-        <f t="shared" si="29"/>
-        <v>#N/A</v>
-      </c>
-      <c r="K96" t="e">
-        <f t="shared" si="30"/>
-        <v>#N/A</v>
-      </c>
-      <c r="L96" t="e">
-        <f t="shared" si="31"/>
-        <v>#N/A</v>
-      </c>
-      <c r="M96" t="e">
-        <f t="shared" si="32"/>
         <v>#N/A</v>
       </c>
     </row>
@@ -15275,47 +15275,47 @@
         <v>382</v>
       </c>
       <c r="C97" t="e">
+        <f t="shared" si="14"/>
+        <v>#N/A</v>
+      </c>
+      <c r="D97" t="e">
+        <f t="shared" si="15"/>
+        <v>#N/A</v>
+      </c>
+      <c r="E97" t="e">
+        <f t="shared" si="16"/>
+        <v>#N/A</v>
+      </c>
+      <c r="F97" t="e">
+        <f t="shared" si="17"/>
+        <v>#N/A</v>
+      </c>
+      <c r="G97" t="e">
+        <f t="shared" si="18"/>
+        <v>#N/A</v>
+      </c>
+      <c r="H97" t="e">
+        <f t="shared" si="19"/>
+        <v>#N/A</v>
+      </c>
+      <c r="I97" t="e">
+        <f t="shared" si="20"/>
+        <v>#N/A</v>
+      </c>
+      <c r="J97" t="e">
+        <f t="shared" si="21"/>
+        <v>#N/A</v>
+      </c>
+      <c r="K97" t="e">
         <f t="shared" si="22"/>
         <v>#N/A</v>
       </c>
-      <c r="D97" t="e">
+      <c r="L97" t="e">
         <f t="shared" si="23"/>
         <v>#N/A</v>
       </c>
-      <c r="E97" t="e">
+      <c r="M97" t="e">
         <f t="shared" si="24"/>
-        <v>#N/A</v>
-      </c>
-      <c r="F97" t="e">
-        <f t="shared" si="25"/>
-        <v>#N/A</v>
-      </c>
-      <c r="G97" t="e">
-        <f t="shared" si="26"/>
-        <v>#N/A</v>
-      </c>
-      <c r="H97" t="e">
-        <f t="shared" si="27"/>
-        <v>#N/A</v>
-      </c>
-      <c r="I97" t="e">
-        <f t="shared" si="28"/>
-        <v>#N/A</v>
-      </c>
-      <c r="J97" t="e">
-        <f t="shared" si="29"/>
-        <v>#N/A</v>
-      </c>
-      <c r="K97" t="e">
-        <f t="shared" si="30"/>
-        <v>#N/A</v>
-      </c>
-      <c r="L97" t="e">
-        <f t="shared" si="31"/>
-        <v>#N/A</v>
-      </c>
-      <c r="M97" t="e">
-        <f t="shared" si="32"/>
         <v>#N/A</v>
       </c>
     </row>
@@ -15327,47 +15327,47 @@
         <v>383</v>
       </c>
       <c r="C98" t="e">
+        <f t="shared" si="14"/>
+        <v>#N/A</v>
+      </c>
+      <c r="D98" t="e">
+        <f t="shared" si="15"/>
+        <v>#N/A</v>
+      </c>
+      <c r="E98" t="e">
+        <f t="shared" si="16"/>
+        <v>#N/A</v>
+      </c>
+      <c r="F98" t="e">
+        <f t="shared" si="17"/>
+        <v>#N/A</v>
+      </c>
+      <c r="G98" t="e">
+        <f t="shared" si="18"/>
+        <v>#N/A</v>
+      </c>
+      <c r="H98" t="e">
+        <f t="shared" si="19"/>
+        <v>#N/A</v>
+      </c>
+      <c r="I98" t="e">
+        <f t="shared" si="20"/>
+        <v>#N/A</v>
+      </c>
+      <c r="J98" t="e">
+        <f t="shared" si="21"/>
+        <v>#N/A</v>
+      </c>
+      <c r="K98" t="e">
         <f t="shared" si="22"/>
         <v>#N/A</v>
       </c>
-      <c r="D98" t="e">
+      <c r="L98" t="e">
         <f t="shared" si="23"/>
         <v>#N/A</v>
       </c>
-      <c r="E98" t="e">
+      <c r="M98" t="e">
         <f t="shared" si="24"/>
-        <v>#N/A</v>
-      </c>
-      <c r="F98" t="e">
-        <f t="shared" si="25"/>
-        <v>#N/A</v>
-      </c>
-      <c r="G98" t="e">
-        <f t="shared" si="26"/>
-        <v>#N/A</v>
-      </c>
-      <c r="H98" t="e">
-        <f t="shared" si="27"/>
-        <v>#N/A</v>
-      </c>
-      <c r="I98" t="e">
-        <f t="shared" si="28"/>
-        <v>#N/A</v>
-      </c>
-      <c r="J98" t="e">
-        <f t="shared" si="29"/>
-        <v>#N/A</v>
-      </c>
-      <c r="K98" t="e">
-        <f t="shared" si="30"/>
-        <v>#N/A</v>
-      </c>
-      <c r="L98" t="e">
-        <f t="shared" si="31"/>
-        <v>#N/A</v>
-      </c>
-      <c r="M98" t="e">
-        <f t="shared" si="32"/>
         <v>#N/A</v>
       </c>
     </row>
@@ -15379,47 +15379,47 @@
         <v>384</v>
       </c>
       <c r="C99" t="e">
+        <f t="shared" si="14"/>
+        <v>#N/A</v>
+      </c>
+      <c r="D99" t="e">
+        <f t="shared" si="15"/>
+        <v>#N/A</v>
+      </c>
+      <c r="E99" t="e">
+        <f t="shared" si="16"/>
+        <v>#N/A</v>
+      </c>
+      <c r="F99" t="e">
+        <f t="shared" si="17"/>
+        <v>#N/A</v>
+      </c>
+      <c r="G99" t="e">
+        <f t="shared" si="18"/>
+        <v>#N/A</v>
+      </c>
+      <c r="H99" t="e">
+        <f t="shared" si="19"/>
+        <v>#N/A</v>
+      </c>
+      <c r="I99" t="e">
+        <f t="shared" si="20"/>
+        <v>#N/A</v>
+      </c>
+      <c r="J99" t="e">
+        <f t="shared" si="21"/>
+        <v>#N/A</v>
+      </c>
+      <c r="K99" t="e">
         <f t="shared" si="22"/>
         <v>#N/A</v>
       </c>
-      <c r="D99" t="e">
+      <c r="L99" t="e">
         <f t="shared" si="23"/>
         <v>#N/A</v>
       </c>
-      <c r="E99" t="e">
+      <c r="M99" t="e">
         <f t="shared" si="24"/>
-        <v>#N/A</v>
-      </c>
-      <c r="F99" t="e">
-        <f t="shared" si="25"/>
-        <v>#N/A</v>
-      </c>
-      <c r="G99" t="e">
-        <f t="shared" si="26"/>
-        <v>#N/A</v>
-      </c>
-      <c r="H99" t="e">
-        <f t="shared" si="27"/>
-        <v>#N/A</v>
-      </c>
-      <c r="I99" t="e">
-        <f t="shared" si="28"/>
-        <v>#N/A</v>
-      </c>
-      <c r="J99" t="e">
-        <f t="shared" si="29"/>
-        <v>#N/A</v>
-      </c>
-      <c r="K99" t="e">
-        <f t="shared" si="30"/>
-        <v>#N/A</v>
-      </c>
-      <c r="L99" t="e">
-        <f t="shared" si="31"/>
-        <v>#N/A</v>
-      </c>
-      <c r="M99" t="e">
-        <f t="shared" si="32"/>
         <v>#N/A</v>
       </c>
     </row>
@@ -15431,47 +15431,47 @@
         <v>385</v>
       </c>
       <c r="C100" t="e">
+        <f t="shared" si="14"/>
+        <v>#N/A</v>
+      </c>
+      <c r="D100" t="e">
+        <f t="shared" si="15"/>
+        <v>#N/A</v>
+      </c>
+      <c r="E100" t="e">
+        <f t="shared" si="16"/>
+        <v>#N/A</v>
+      </c>
+      <c r="F100" t="e">
+        <f t="shared" si="17"/>
+        <v>#N/A</v>
+      </c>
+      <c r="G100" t="e">
+        <f t="shared" si="18"/>
+        <v>#N/A</v>
+      </c>
+      <c r="H100" t="e">
+        <f t="shared" si="19"/>
+        <v>#N/A</v>
+      </c>
+      <c r="I100" t="e">
+        <f t="shared" si="20"/>
+        <v>#N/A</v>
+      </c>
+      <c r="J100" t="e">
+        <f t="shared" si="21"/>
+        <v>#N/A</v>
+      </c>
+      <c r="K100" t="e">
         <f t="shared" si="22"/>
         <v>#N/A</v>
       </c>
-      <c r="D100" t="e">
+      <c r="L100" t="e">
         <f t="shared" si="23"/>
         <v>#N/A</v>
       </c>
-      <c r="E100" t="e">
+      <c r="M100" t="e">
         <f t="shared" si="24"/>
-        <v>#N/A</v>
-      </c>
-      <c r="F100" t="e">
-        <f t="shared" si="25"/>
-        <v>#N/A</v>
-      </c>
-      <c r="G100" t="e">
-        <f t="shared" si="26"/>
-        <v>#N/A</v>
-      </c>
-      <c r="H100" t="e">
-        <f t="shared" si="27"/>
-        <v>#N/A</v>
-      </c>
-      <c r="I100" t="e">
-        <f t="shared" si="28"/>
-        <v>#N/A</v>
-      </c>
-      <c r="J100" t="e">
-        <f t="shared" si="29"/>
-        <v>#N/A</v>
-      </c>
-      <c r="K100" t="e">
-        <f t="shared" si="30"/>
-        <v>#N/A</v>
-      </c>
-      <c r="L100" t="e">
-        <f t="shared" si="31"/>
-        <v>#N/A</v>
-      </c>
-      <c r="M100" t="e">
-        <f t="shared" si="32"/>
         <v>#N/A</v>
       </c>
     </row>
@@ -15483,47 +15483,47 @@
         <v>386</v>
       </c>
       <c r="C101" t="e">
+        <f t="shared" si="14"/>
+        <v>#N/A</v>
+      </c>
+      <c r="D101" t="e">
+        <f t="shared" si="15"/>
+        <v>#N/A</v>
+      </c>
+      <c r="E101" t="e">
+        <f t="shared" si="16"/>
+        <v>#N/A</v>
+      </c>
+      <c r="F101" t="e">
+        <f t="shared" si="17"/>
+        <v>#N/A</v>
+      </c>
+      <c r="G101" t="e">
+        <f t="shared" si="18"/>
+        <v>#N/A</v>
+      </c>
+      <c r="H101" t="e">
+        <f t="shared" si="19"/>
+        <v>#N/A</v>
+      </c>
+      <c r="I101" t="e">
+        <f t="shared" si="20"/>
+        <v>#N/A</v>
+      </c>
+      <c r="J101" t="e">
+        <f t="shared" si="21"/>
+        <v>#N/A</v>
+      </c>
+      <c r="K101" t="e">
         <f t="shared" si="22"/>
         <v>#N/A</v>
       </c>
-      <c r="D101" t="e">
+      <c r="L101" t="e">
         <f t="shared" si="23"/>
         <v>#N/A</v>
       </c>
-      <c r="E101" t="e">
+      <c r="M101" t="e">
         <f t="shared" si="24"/>
-        <v>#N/A</v>
-      </c>
-      <c r="F101" t="e">
-        <f t="shared" si="25"/>
-        <v>#N/A</v>
-      </c>
-      <c r="G101" t="e">
-        <f t="shared" si="26"/>
-        <v>#N/A</v>
-      </c>
-      <c r="H101" t="e">
-        <f t="shared" si="27"/>
-        <v>#N/A</v>
-      </c>
-      <c r="I101" t="e">
-        <f t="shared" si="28"/>
-        <v>#N/A</v>
-      </c>
-      <c r="J101" t="e">
-        <f t="shared" si="29"/>
-        <v>#N/A</v>
-      </c>
-      <c r="K101" t="e">
-        <f t="shared" si="30"/>
-        <v>#N/A</v>
-      </c>
-      <c r="L101" t="e">
-        <f t="shared" si="31"/>
-        <v>#N/A</v>
-      </c>
-      <c r="M101" t="e">
-        <f t="shared" si="32"/>
         <v>#N/A</v>
       </c>
     </row>
@@ -15535,47 +15535,47 @@
         <v>387</v>
       </c>
       <c r="C102" t="e">
+        <f t="shared" si="14"/>
+        <v>#N/A</v>
+      </c>
+      <c r="D102" t="e">
+        <f t="shared" si="15"/>
+        <v>#N/A</v>
+      </c>
+      <c r="E102" t="e">
+        <f t="shared" si="16"/>
+        <v>#N/A</v>
+      </c>
+      <c r="F102" t="e">
+        <f t="shared" si="17"/>
+        <v>#N/A</v>
+      </c>
+      <c r="G102" t="e">
+        <f t="shared" si="18"/>
+        <v>#N/A</v>
+      </c>
+      <c r="H102" t="e">
+        <f t="shared" si="19"/>
+        <v>#N/A</v>
+      </c>
+      <c r="I102" t="e">
+        <f t="shared" si="20"/>
+        <v>#N/A</v>
+      </c>
+      <c r="J102" t="e">
+        <f t="shared" si="21"/>
+        <v>#N/A</v>
+      </c>
+      <c r="K102" t="e">
         <f t="shared" si="22"/>
         <v>#N/A</v>
       </c>
-      <c r="D102" t="e">
+      <c r="L102" t="e">
         <f t="shared" si="23"/>
         <v>#N/A</v>
       </c>
-      <c r="E102" t="e">
+      <c r="M102" t="e">
         <f t="shared" si="24"/>
-        <v>#N/A</v>
-      </c>
-      <c r="F102" t="e">
-        <f t="shared" si="25"/>
-        <v>#N/A</v>
-      </c>
-      <c r="G102" t="e">
-        <f t="shared" si="26"/>
-        <v>#N/A</v>
-      </c>
-      <c r="H102" t="e">
-        <f t="shared" si="27"/>
-        <v>#N/A</v>
-      </c>
-      <c r="I102" t="e">
-        <f t="shared" si="28"/>
-        <v>#N/A</v>
-      </c>
-      <c r="J102" t="e">
-        <f t="shared" si="29"/>
-        <v>#N/A</v>
-      </c>
-      <c r="K102" t="e">
-        <f t="shared" si="30"/>
-        <v>#N/A</v>
-      </c>
-      <c r="L102" t="e">
-        <f t="shared" si="31"/>
-        <v>#N/A</v>
-      </c>
-      <c r="M102" t="e">
-        <f t="shared" si="32"/>
         <v>#N/A</v>
       </c>
     </row>
@@ -15587,47 +15587,47 @@
         <v>388</v>
       </c>
       <c r="C103" t="e">
+        <f t="shared" si="14"/>
+        <v>#N/A</v>
+      </c>
+      <c r="D103" t="e">
+        <f t="shared" si="15"/>
+        <v>#N/A</v>
+      </c>
+      <c r="E103" t="e">
+        <f t="shared" si="16"/>
+        <v>#N/A</v>
+      </c>
+      <c r="F103" t="e">
+        <f t="shared" si="17"/>
+        <v>#N/A</v>
+      </c>
+      <c r="G103" t="e">
+        <f t="shared" si="18"/>
+        <v>#N/A</v>
+      </c>
+      <c r="H103" t="e">
+        <f t="shared" si="19"/>
+        <v>#N/A</v>
+      </c>
+      <c r="I103" t="e">
+        <f t="shared" si="20"/>
+        <v>#N/A</v>
+      </c>
+      <c r="J103" t="e">
+        <f t="shared" si="21"/>
+        <v>#N/A</v>
+      </c>
+      <c r="K103" t="e">
         <f t="shared" si="22"/>
         <v>#N/A</v>
       </c>
-      <c r="D103" t="e">
+      <c r="L103" t="e">
         <f t="shared" si="23"/>
         <v>#N/A</v>
       </c>
-      <c r="E103" t="e">
+      <c r="M103" t="e">
         <f t="shared" si="24"/>
-        <v>#N/A</v>
-      </c>
-      <c r="F103" t="e">
-        <f t="shared" si="25"/>
-        <v>#N/A</v>
-      </c>
-      <c r="G103" t="e">
-        <f t="shared" si="26"/>
-        <v>#N/A</v>
-      </c>
-      <c r="H103" t="e">
-        <f t="shared" si="27"/>
-        <v>#N/A</v>
-      </c>
-      <c r="I103" t="e">
-        <f t="shared" si="28"/>
-        <v>#N/A</v>
-      </c>
-      <c r="J103" t="e">
-        <f t="shared" si="29"/>
-        <v>#N/A</v>
-      </c>
-      <c r="K103" t="e">
-        <f t="shared" si="30"/>
-        <v>#N/A</v>
-      </c>
-      <c r="L103" t="e">
-        <f t="shared" si="31"/>
-        <v>#N/A</v>
-      </c>
-      <c r="M103" t="e">
-        <f t="shared" si="32"/>
         <v>#N/A</v>
       </c>
     </row>
@@ -15639,47 +15639,47 @@
         <v>389</v>
       </c>
       <c r="C104" t="e">
+        <f t="shared" si="14"/>
+        <v>#N/A</v>
+      </c>
+      <c r="D104" t="e">
+        <f t="shared" si="15"/>
+        <v>#N/A</v>
+      </c>
+      <c r="E104" t="e">
+        <f t="shared" si="16"/>
+        <v>#N/A</v>
+      </c>
+      <c r="F104" t="e">
+        <f t="shared" si="17"/>
+        <v>#N/A</v>
+      </c>
+      <c r="G104" t="e">
+        <f t="shared" si="18"/>
+        <v>#N/A</v>
+      </c>
+      <c r="H104" t="e">
+        <f t="shared" si="19"/>
+        <v>#N/A</v>
+      </c>
+      <c r="I104" t="e">
+        <f t="shared" si="20"/>
+        <v>#N/A</v>
+      </c>
+      <c r="J104" t="e">
+        <f t="shared" si="21"/>
+        <v>#N/A</v>
+      </c>
+      <c r="K104" t="e">
         <f t="shared" si="22"/>
         <v>#N/A</v>
       </c>
-      <c r="D104" t="e">
+      <c r="L104" t="e">
         <f t="shared" si="23"/>
         <v>#N/A</v>
       </c>
-      <c r="E104" t="e">
+      <c r="M104" t="e">
         <f t="shared" si="24"/>
-        <v>#N/A</v>
-      </c>
-      <c r="F104" t="e">
-        <f t="shared" si="25"/>
-        <v>#N/A</v>
-      </c>
-      <c r="G104" t="e">
-        <f t="shared" si="26"/>
-        <v>#N/A</v>
-      </c>
-      <c r="H104" t="e">
-        <f t="shared" si="27"/>
-        <v>#N/A</v>
-      </c>
-      <c r="I104" t="e">
-        <f t="shared" si="28"/>
-        <v>#N/A</v>
-      </c>
-      <c r="J104" t="e">
-        <f t="shared" si="29"/>
-        <v>#N/A</v>
-      </c>
-      <c r="K104" t="e">
-        <f t="shared" si="30"/>
-        <v>#N/A</v>
-      </c>
-      <c r="L104" t="e">
-        <f t="shared" si="31"/>
-        <v>#N/A</v>
-      </c>
-      <c r="M104" t="e">
-        <f t="shared" si="32"/>
         <v>#N/A</v>
       </c>
     </row>
@@ -15691,47 +15691,47 @@
         <v>390</v>
       </c>
       <c r="C105" t="e">
+        <f t="shared" si="14"/>
+        <v>#N/A</v>
+      </c>
+      <c r="D105" t="e">
+        <f t="shared" si="15"/>
+        <v>#N/A</v>
+      </c>
+      <c r="E105" t="e">
+        <f t="shared" si="16"/>
+        <v>#N/A</v>
+      </c>
+      <c r="F105" t="e">
+        <f t="shared" si="17"/>
+        <v>#N/A</v>
+      </c>
+      <c r="G105" t="e">
+        <f t="shared" si="18"/>
+        <v>#N/A</v>
+      </c>
+      <c r="H105" t="e">
+        <f t="shared" si="19"/>
+        <v>#N/A</v>
+      </c>
+      <c r="I105" t="e">
+        <f t="shared" si="20"/>
+        <v>#N/A</v>
+      </c>
+      <c r="J105" t="e">
+        <f t="shared" si="21"/>
+        <v>#N/A</v>
+      </c>
+      <c r="K105" t="e">
         <f t="shared" si="22"/>
         <v>#N/A</v>
       </c>
-      <c r="D105" t="e">
+      <c r="L105" t="e">
         <f t="shared" si="23"/>
         <v>#N/A</v>
       </c>
-      <c r="E105" t="e">
+      <c r="M105" t="e">
         <f t="shared" si="24"/>
-        <v>#N/A</v>
-      </c>
-      <c r="F105" t="e">
-        <f t="shared" si="25"/>
-        <v>#N/A</v>
-      </c>
-      <c r="G105" t="e">
-        <f t="shared" si="26"/>
-        <v>#N/A</v>
-      </c>
-      <c r="H105" t="e">
-        <f t="shared" si="27"/>
-        <v>#N/A</v>
-      </c>
-      <c r="I105" t="e">
-        <f t="shared" si="28"/>
-        <v>#N/A</v>
-      </c>
-      <c r="J105" t="e">
-        <f t="shared" si="29"/>
-        <v>#N/A</v>
-      </c>
-      <c r="K105" t="e">
-        <f t="shared" si="30"/>
-        <v>#N/A</v>
-      </c>
-      <c r="L105" t="e">
-        <f t="shared" si="31"/>
-        <v>#N/A</v>
-      </c>
-      <c r="M105" t="e">
-        <f t="shared" si="32"/>
         <v>#N/A</v>
       </c>
     </row>
@@ -15743,47 +15743,47 @@
         <v>391</v>
       </c>
       <c r="C106" t="e">
+        <f t="shared" si="14"/>
+        <v>#N/A</v>
+      </c>
+      <c r="D106" t="e">
+        <f t="shared" si="15"/>
+        <v>#N/A</v>
+      </c>
+      <c r="E106" t="e">
+        <f t="shared" si="16"/>
+        <v>#N/A</v>
+      </c>
+      <c r="F106" t="e">
+        <f t="shared" si="17"/>
+        <v>#N/A</v>
+      </c>
+      <c r="G106" t="e">
+        <f t="shared" si="18"/>
+        <v>#N/A</v>
+      </c>
+      <c r="H106" t="e">
+        <f t="shared" si="19"/>
+        <v>#N/A</v>
+      </c>
+      <c r="I106" t="e">
+        <f t="shared" si="20"/>
+        <v>#N/A</v>
+      </c>
+      <c r="J106" t="e">
+        <f t="shared" si="21"/>
+        <v>#N/A</v>
+      </c>
+      <c r="K106" t="e">
         <f t="shared" si="22"/>
         <v>#N/A</v>
       </c>
-      <c r="D106" t="e">
+      <c r="L106" t="e">
         <f t="shared" si="23"/>
         <v>#N/A</v>
       </c>
-      <c r="E106" t="e">
+      <c r="M106" t="e">
         <f t="shared" si="24"/>
-        <v>#N/A</v>
-      </c>
-      <c r="F106" t="e">
-        <f t="shared" si="25"/>
-        <v>#N/A</v>
-      </c>
-      <c r="G106" t="e">
-        <f t="shared" si="26"/>
-        <v>#N/A</v>
-      </c>
-      <c r="H106" t="e">
-        <f t="shared" si="27"/>
-        <v>#N/A</v>
-      </c>
-      <c r="I106" t="e">
-        <f t="shared" si="28"/>
-        <v>#N/A</v>
-      </c>
-      <c r="J106" t="e">
-        <f t="shared" si="29"/>
-        <v>#N/A</v>
-      </c>
-      <c r="K106" t="e">
-        <f t="shared" si="30"/>
-        <v>#N/A</v>
-      </c>
-      <c r="L106" t="e">
-        <f t="shared" si="31"/>
-        <v>#N/A</v>
-      </c>
-      <c r="M106" t="e">
-        <f t="shared" si="32"/>
         <v>#N/A</v>
       </c>
     </row>
@@ -15795,47 +15795,47 @@
         <v>392</v>
       </c>
       <c r="C107" t="e">
+        <f t="shared" si="14"/>
+        <v>#N/A</v>
+      </c>
+      <c r="D107" t="e">
+        <f t="shared" si="15"/>
+        <v>#N/A</v>
+      </c>
+      <c r="E107" t="e">
+        <f t="shared" si="16"/>
+        <v>#N/A</v>
+      </c>
+      <c r="F107" t="e">
+        <f t="shared" si="17"/>
+        <v>#N/A</v>
+      </c>
+      <c r="G107" t="e">
+        <f t="shared" si="18"/>
+        <v>#N/A</v>
+      </c>
+      <c r="H107" t="e">
+        <f t="shared" si="19"/>
+        <v>#N/A</v>
+      </c>
+      <c r="I107" t="e">
+        <f t="shared" si="20"/>
+        <v>#N/A</v>
+      </c>
+      <c r="J107" t="e">
+        <f t="shared" si="21"/>
+        <v>#N/A</v>
+      </c>
+      <c r="K107" t="e">
         <f t="shared" si="22"/>
         <v>#N/A</v>
       </c>
-      <c r="D107" t="e">
+      <c r="L107" t="e">
         <f t="shared" si="23"/>
         <v>#N/A</v>
       </c>
-      <c r="E107" t="e">
+      <c r="M107" t="e">
         <f t="shared" si="24"/>
-        <v>#N/A</v>
-      </c>
-      <c r="F107" t="e">
-        <f t="shared" si="25"/>
-        <v>#N/A</v>
-      </c>
-      <c r="G107" t="e">
-        <f t="shared" si="26"/>
-        <v>#N/A</v>
-      </c>
-      <c r="H107" t="e">
-        <f t="shared" si="27"/>
-        <v>#N/A</v>
-      </c>
-      <c r="I107" t="e">
-        <f t="shared" si="28"/>
-        <v>#N/A</v>
-      </c>
-      <c r="J107" t="e">
-        <f t="shared" si="29"/>
-        <v>#N/A</v>
-      </c>
-      <c r="K107" t="e">
-        <f t="shared" si="30"/>
-        <v>#N/A</v>
-      </c>
-      <c r="L107" t="e">
-        <f t="shared" si="31"/>
-        <v>#N/A</v>
-      </c>
-      <c r="M107" t="e">
-        <f t="shared" si="32"/>
         <v>#N/A</v>
       </c>
     </row>
@@ -15847,47 +15847,47 @@
         <v>393</v>
       </c>
       <c r="C108" t="e">
+        <f t="shared" si="14"/>
+        <v>#N/A</v>
+      </c>
+      <c r="D108" t="e">
+        <f t="shared" si="15"/>
+        <v>#N/A</v>
+      </c>
+      <c r="E108" t="e">
+        <f t="shared" si="16"/>
+        <v>#N/A</v>
+      </c>
+      <c r="F108" t="e">
+        <f t="shared" si="17"/>
+        <v>#N/A</v>
+      </c>
+      <c r="G108" t="e">
+        <f t="shared" si="18"/>
+        <v>#N/A</v>
+      </c>
+      <c r="H108" t="e">
+        <f t="shared" si="19"/>
+        <v>#N/A</v>
+      </c>
+      <c r="I108" t="e">
+        <f t="shared" si="20"/>
+        <v>#N/A</v>
+      </c>
+      <c r="J108" t="e">
+        <f t="shared" si="21"/>
+        <v>#N/A</v>
+      </c>
+      <c r="K108" t="e">
         <f t="shared" si="22"/>
         <v>#N/A</v>
       </c>
-      <c r="D108" t="e">
+      <c r="L108" t="e">
         <f t="shared" si="23"/>
         <v>#N/A</v>
       </c>
-      <c r="E108" t="e">
+      <c r="M108" t="e">
         <f t="shared" si="24"/>
-        <v>#N/A</v>
-      </c>
-      <c r="F108" t="e">
-        <f t="shared" si="25"/>
-        <v>#N/A</v>
-      </c>
-      <c r="G108" t="e">
-        <f t="shared" si="26"/>
-        <v>#N/A</v>
-      </c>
-      <c r="H108" t="e">
-        <f t="shared" si="27"/>
-        <v>#N/A</v>
-      </c>
-      <c r="I108" t="e">
-        <f t="shared" si="28"/>
-        <v>#N/A</v>
-      </c>
-      <c r="J108" t="e">
-        <f t="shared" si="29"/>
-        <v>#N/A</v>
-      </c>
-      <c r="K108" t="e">
-        <f t="shared" si="30"/>
-        <v>#N/A</v>
-      </c>
-      <c r="L108" t="e">
-        <f t="shared" si="31"/>
-        <v>#N/A</v>
-      </c>
-      <c r="M108" t="e">
-        <f t="shared" si="32"/>
         <v>#N/A</v>
       </c>
     </row>
@@ -15899,47 +15899,47 @@
         <v>394</v>
       </c>
       <c r="C109" t="e">
+        <f t="shared" si="14"/>
+        <v>#N/A</v>
+      </c>
+      <c r="D109" t="e">
+        <f t="shared" si="15"/>
+        <v>#N/A</v>
+      </c>
+      <c r="E109" t="e">
+        <f t="shared" si="16"/>
+        <v>#N/A</v>
+      </c>
+      <c r="F109" t="e">
+        <f t="shared" si="17"/>
+        <v>#N/A</v>
+      </c>
+      <c r="G109" t="e">
+        <f t="shared" si="18"/>
+        <v>#N/A</v>
+      </c>
+      <c r="H109" t="e">
+        <f t="shared" si="19"/>
+        <v>#N/A</v>
+      </c>
+      <c r="I109" t="e">
+        <f t="shared" si="20"/>
+        <v>#N/A</v>
+      </c>
+      <c r="J109" t="e">
+        <f t="shared" si="21"/>
+        <v>#N/A</v>
+      </c>
+      <c r="K109" t="e">
         <f t="shared" si="22"/>
         <v>#N/A</v>
       </c>
-      <c r="D109" t="e">
+      <c r="L109" t="e">
         <f t="shared" si="23"/>
         <v>#N/A</v>
       </c>
-      <c r="E109" t="e">
+      <c r="M109" t="e">
         <f t="shared" si="24"/>
-        <v>#N/A</v>
-      </c>
-      <c r="F109" t="e">
-        <f t="shared" si="25"/>
-        <v>#N/A</v>
-      </c>
-      <c r="G109" t="e">
-        <f t="shared" si="26"/>
-        <v>#N/A</v>
-      </c>
-      <c r="H109" t="e">
-        <f t="shared" si="27"/>
-        <v>#N/A</v>
-      </c>
-      <c r="I109" t="e">
-        <f t="shared" si="28"/>
-        <v>#N/A</v>
-      </c>
-      <c r="J109" t="e">
-        <f t="shared" si="29"/>
-        <v>#N/A</v>
-      </c>
-      <c r="K109" t="e">
-        <f t="shared" si="30"/>
-        <v>#N/A</v>
-      </c>
-      <c r="L109" t="e">
-        <f t="shared" si="31"/>
-        <v>#N/A</v>
-      </c>
-      <c r="M109" t="e">
-        <f t="shared" si="32"/>
         <v>#N/A</v>
       </c>
     </row>
@@ -15993,7 +15993,7 @@
         <v>395</v>
       </c>
       <c r="C113" t="e">
-        <f t="shared" ref="C113:C118" si="33">VLOOKUP(B113,$BG$4:$BR$15,3,FALSE)</f>
+        <f t="shared" ref="C113:C118" si="25">VLOOKUP(B113,$BG$4:$BR$15,3,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="D113" t="e">
@@ -16033,35 +16033,35 @@
         <v>396</v>
       </c>
       <c r="C114" t="e">
-        <f t="shared" si="33"/>
+        <f t="shared" si="25"/>
         <v>#N/A</v>
       </c>
       <c r="D114" t="e">
-        <f t="shared" ref="D114:D118" si="34">VLOOKUP(B114,$BG$4:$BR$6,4,FALSE)</f>
+        <f t="shared" ref="D114:D118" si="26">VLOOKUP(B114,$BG$4:$BR$6,4,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="E114" t="e">
-        <f t="shared" ref="E114:E118" si="35">VLOOKUP(B114,$BG$4:$BR$6,6,FALSE)</f>
+        <f t="shared" ref="E114:E118" si="27">VLOOKUP(B114,$BG$4:$BR$6,6,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="F114" t="e">
-        <f t="shared" ref="F114:F118" si="36">VLOOKUP(B114,$BG$4:$BR$6,7,FALSE)</f>
+        <f t="shared" ref="F114:F118" si="28">VLOOKUP(B114,$BG$4:$BR$6,7,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="G114" t="e">
-        <f t="shared" ref="G114:G118" si="37">VLOOKUP(B114,$BG$4:$BR$6,9,FALSE)</f>
+        <f t="shared" ref="G114:G118" si="29">VLOOKUP(B114,$BG$4:$BR$6,9,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="H114" t="e">
-        <f t="shared" ref="H114:H118" si="38">VLOOKUP(B114,$BG$4:$BR$6,10,FALSE)</f>
+        <f t="shared" ref="H114:H118" si="30">VLOOKUP(B114,$BG$4:$BR$6,10,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="I114" t="e">
-        <f t="shared" ref="I114:I118" si="39">VLOOKUP(B114,$BG$4:$BR$6,11,FALSE)</f>
+        <f t="shared" ref="I114:I118" si="31">VLOOKUP(B114,$BG$4:$BR$6,11,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="J114" t="e">
-        <f t="shared" ref="J114:J118" si="40">VLOOKUP(B114,$BG$4:$BR$6,12,FALSE)</f>
+        <f t="shared" ref="J114:J118" si="32">VLOOKUP(B114,$BG$4:$BR$6,12,FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -16073,35 +16073,35 @@
         <v>397</v>
       </c>
       <c r="C115" t="e">
-        <f t="shared" si="33"/>
+        <f t="shared" si="25"/>
         <v>#N/A</v>
       </c>
       <c r="D115" t="e">
-        <f t="shared" si="34"/>
+        <f t="shared" si="26"/>
         <v>#N/A</v>
       </c>
       <c r="E115" t="e">
-        <f t="shared" si="35"/>
+        <f t="shared" si="27"/>
         <v>#N/A</v>
       </c>
       <c r="F115" t="e">
-        <f t="shared" si="36"/>
+        <f t="shared" si="28"/>
         <v>#N/A</v>
       </c>
       <c r="G115" t="e">
-        <f t="shared" si="37"/>
+        <f t="shared" si="29"/>
         <v>#N/A</v>
       </c>
       <c r="H115" t="e">
-        <f t="shared" si="38"/>
+        <f t="shared" si="30"/>
         <v>#N/A</v>
       </c>
       <c r="I115" t="e">
-        <f t="shared" si="39"/>
+        <f t="shared" si="31"/>
         <v>#N/A</v>
       </c>
       <c r="J115" t="e">
-        <f t="shared" si="40"/>
+        <f t="shared" si="32"/>
         <v>#N/A</v>
       </c>
     </row>
@@ -16113,35 +16113,35 @@
         <v>398</v>
       </c>
       <c r="C116" t="e">
-        <f t="shared" si="33"/>
+        <f t="shared" si="25"/>
         <v>#N/A</v>
       </c>
       <c r="D116" t="e">
-        <f t="shared" si="34"/>
+        <f t="shared" si="26"/>
         <v>#N/A</v>
       </c>
       <c r="E116" t="e">
-        <f t="shared" si="35"/>
+        <f t="shared" si="27"/>
         <v>#N/A</v>
       </c>
       <c r="F116" t="e">
-        <f t="shared" si="36"/>
+        <f t="shared" si="28"/>
         <v>#N/A</v>
       </c>
       <c r="G116" t="e">
-        <f t="shared" si="37"/>
+        <f t="shared" si="29"/>
         <v>#N/A</v>
       </c>
       <c r="H116" t="e">
-        <f t="shared" si="38"/>
+        <f t="shared" si="30"/>
         <v>#N/A</v>
       </c>
       <c r="I116" t="e">
-        <f t="shared" si="39"/>
+        <f t="shared" si="31"/>
         <v>#N/A</v>
       </c>
       <c r="J116" t="e">
-        <f t="shared" si="40"/>
+        <f t="shared" si="32"/>
         <v>#N/A</v>
       </c>
     </row>
@@ -16153,35 +16153,35 @@
         <v>399</v>
       </c>
       <c r="C117" t="e">
-        <f t="shared" si="33"/>
+        <f t="shared" si="25"/>
         <v>#N/A</v>
       </c>
       <c r="D117" t="e">
-        <f t="shared" si="34"/>
+        <f t="shared" si="26"/>
         <v>#N/A</v>
       </c>
       <c r="E117" t="e">
-        <f t="shared" si="35"/>
+        <f t="shared" si="27"/>
         <v>#N/A</v>
       </c>
       <c r="F117" t="e">
-        <f t="shared" si="36"/>
+        <f t="shared" si="28"/>
         <v>#N/A</v>
       </c>
       <c r="G117" t="e">
-        <f t="shared" si="37"/>
+        <f t="shared" si="29"/>
         <v>#N/A</v>
       </c>
       <c r="H117" t="e">
-        <f t="shared" si="38"/>
+        <f t="shared" si="30"/>
         <v>#N/A</v>
       </c>
       <c r="I117" t="e">
-        <f t="shared" si="39"/>
+        <f t="shared" si="31"/>
         <v>#N/A</v>
       </c>
       <c r="J117" t="e">
-        <f t="shared" si="40"/>
+        <f t="shared" si="32"/>
         <v>#N/A</v>
       </c>
     </row>
@@ -16193,35 +16193,35 @@
         <v>400</v>
       </c>
       <c r="C118" t="e">
-        <f t="shared" si="33"/>
+        <f t="shared" si="25"/>
         <v>#N/A</v>
       </c>
       <c r="D118" t="e">
-        <f t="shared" si="34"/>
+        <f t="shared" si="26"/>
         <v>#N/A</v>
       </c>
       <c r="E118" t="e">
-        <f t="shared" si="35"/>
+        <f t="shared" si="27"/>
         <v>#N/A</v>
       </c>
       <c r="F118" t="e">
-        <f t="shared" si="36"/>
+        <f t="shared" si="28"/>
         <v>#N/A</v>
       </c>
       <c r="G118" t="e">
-        <f t="shared" si="37"/>
+        <f t="shared" si="29"/>
         <v>#N/A</v>
       </c>
       <c r="H118" t="e">
-        <f t="shared" si="38"/>
+        <f t="shared" si="30"/>
         <v>#N/A</v>
       </c>
       <c r="I118" t="e">
-        <f t="shared" si="39"/>
+        <f t="shared" si="31"/>
         <v>#N/A</v>
       </c>
       <c r="J118" t="e">
-        <f t="shared" si="40"/>
+        <f t="shared" si="32"/>
         <v>#N/A</v>
       </c>
     </row>
